--- a/RailIndexPrj/rawdata_monthly.xlsx
+++ b/RailIndexPrj/rawdata_monthly.xlsx
@@ -1,16 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RailIndexPrj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="-225" windowWidth="19395" windowHeight="9405"/>
+    <workbookView xWindow="8685" yWindow="660" windowWidth="9975" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_monthly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>WenJing</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WenJing:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+28个品类的和</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WenJing:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+28个品类的周转量</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -181,46 +248,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>货运量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>货运周转量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客运量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客运周转量</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -384,12 +412,28 @@
     <t>electronic</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>客运量(亿人)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>客运周转量(亿人公里)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>货运量（万吨）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +620,33 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1018,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,26 +1110,47 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1073,15 +1165,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1090,12 +1182,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1137,7 +1232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1172,7 +1267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1380,21 +1475,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K179" sqref="K179"/>
+      <selection pane="bottomRight" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="9" style="4"/>
-    <col min="12" max="23" width="9" style="3"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="3" customWidth="1"/>
+    <col min="13" max="18" width="9" style="3"/>
+    <col min="19" max="19" width="10.125" style="3" customWidth="1"/>
+    <col min="20" max="23" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1419,53 +1526,53 @@
       <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
@@ -1506,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>12</v>
@@ -12987,7 +13094,7 @@
         <v>3460.6</v>
       </c>
       <c r="F164" s="3">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G164" s="3">
         <v>5867300</v>
@@ -13058,7 +13165,7 @@
         <v>3664</v>
       </c>
       <c r="F165" s="3">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="G165" s="3">
         <v>6202200.0000000028</v>
@@ -13129,7 +13236,7 @@
         <v>3528</v>
       </c>
       <c r="F166" s="3">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="G166" s="3">
         <v>6896599.9999999981</v>
@@ -13200,7 +13307,7 @@
         <v>3146.46</v>
       </c>
       <c r="F167" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G167" s="3">
         <v>8964800</v>
@@ -13271,7 +13378,7 @@
         <v>3206</v>
       </c>
       <c r="F168" s="3">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="G168" s="3">
         <v>8672600.0000000019</v>
@@ -13342,7 +13449,7 @@
         <v>3455</v>
       </c>
       <c r="F169" s="3">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="G169" s="3">
         <v>8015799.9999999991</v>
@@ -13413,7 +13520,7 @@
         <v>3980</v>
       </c>
       <c r="F170" s="3">
-        <v>8.3000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="G170" s="3">
         <v>18807799.999999996</v>
@@ -13467,505 +13574,862 @@
         <v>13721.522999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A171" s="2">
+    <row r="171" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="9">
         <v>42005</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="10">
         <v>8830.7999999999993</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="10">
         <v>29000</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="10">
         <v>4294.0200000000004</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="10">
         <v>4030.5</v>
       </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="3">
-        <v>24161.067799999997</v>
-      </c>
-      <c r="I171" s="3">
-        <v>1922.1081799999999</v>
-      </c>
-      <c r="J171" s="3">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="K171" s="3">
-        <v>906.13509999999997</v>
-      </c>
-      <c r="L171" s="3">
+      <c r="F171" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="G171" s="10">
+        <v>3012001</v>
+      </c>
+      <c r="H171" s="11">
+        <v>25463.65</v>
+      </c>
+      <c r="I171" s="12">
+        <v>2138.64</v>
+      </c>
+      <c r="J171" s="13">
+        <v>1.79</v>
+      </c>
+      <c r="K171" s="11">
+        <v>813.64</v>
+      </c>
+      <c r="L171" s="10">
         <v>41.816400000000002</v>
       </c>
-      <c r="M171" s="3">
+      <c r="M171" s="10">
         <v>2.6255999999999999</v>
       </c>
-      <c r="N171" s="3">
+      <c r="N171" s="10">
         <v>29.731300000000001</v>
       </c>
-      <c r="O171" s="3">
+      <c r="O171" s="10">
         <v>142.08369999999999</v>
       </c>
-      <c r="P171" s="3">
+      <c r="P171" s="10">
         <v>36.260399999999997</v>
       </c>
-      <c r="Q171" s="3">
+      <c r="Q171" s="10">
         <v>1673076</v>
       </c>
-      <c r="R171" s="3">
+      <c r="R171" s="10">
         <v>716.86530000000005</v>
       </c>
-      <c r="S171" s="3">
+      <c r="S171" s="10">
         <v>2771.6995999999999</v>
       </c>
-      <c r="T171" s="3">
+      <c r="T171" s="10">
         <v>465.14929999999998</v>
       </c>
-      <c r="U171" s="3">
+      <c r="U171" s="10">
         <v>1601.5569</v>
       </c>
-      <c r="V171" s="3">
+      <c r="V171" s="10">
         <v>1066.8276000000001</v>
       </c>
-      <c r="W171" s="3">
+      <c r="W171" s="10">
         <v>14545.4067</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A172" s="2">
+    <row r="172" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="9">
         <v>42036</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="10">
         <v>7976.2</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="10">
         <v>24000</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="10">
         <v>3969.52</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="10">
         <v>2914.3</v>
       </c>
-      <c r="F172" s="3">
-        <v>0</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="3">
-        <v>20375.032599999999</v>
-      </c>
-      <c r="I172" s="3">
-        <v>1508.27998</v>
-      </c>
-      <c r="J172" s="3">
-        <v>1.4996</v>
-      </c>
-      <c r="K172" s="3">
-        <v>642.9461</v>
-      </c>
-      <c r="L172" s="3">
+      <c r="F172" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="G172" s="10">
+        <v>1647600</v>
+      </c>
+      <c r="H172" s="11">
+        <v>21228.29</v>
+      </c>
+      <c r="I172" s="12">
+        <v>1646.12</v>
+      </c>
+      <c r="J172" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="K172" s="11">
+        <v>1043.74</v>
+      </c>
+      <c r="L172" s="10">
         <v>30.546199999999999</v>
       </c>
-      <c r="M172" s="3">
+      <c r="M172" s="10">
         <v>1.2379</v>
       </c>
-      <c r="N172" s="3">
+      <c r="N172" s="10">
         <v>14.3415</v>
       </c>
-      <c r="O172" s="3">
+      <c r="O172" s="10">
         <v>88.592500000000001</v>
       </c>
-      <c r="P172" s="3">
+      <c r="P172" s="10">
         <v>25.535299999999999</v>
       </c>
-      <c r="Q172" s="3">
+      <c r="Q172" s="10">
         <v>968963</v>
       </c>
-      <c r="R172" s="3">
+      <c r="R172" s="10">
         <v>499.34120000000001</v>
       </c>
-      <c r="S172" s="3">
+      <c r="S172" s="10">
         <v>2711.9778999999999</v>
       </c>
-      <c r="T172" s="3">
+      <c r="T172" s="10">
         <v>598.97789999999998</v>
       </c>
-      <c r="U172" s="3">
+      <c r="U172" s="10">
         <v>1446.3063999999999</v>
       </c>
-      <c r="V172" s="3">
+      <c r="V172" s="10">
         <v>1008.8966</v>
       </c>
-      <c r="W172" s="3">
+      <c r="W172" s="10">
         <v>11898.2256</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A173" s="2">
+    <row r="173" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="9">
         <v>42064</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="10">
         <v>9756</v>
       </c>
-      <c r="C173" s="3">
-        <v>0</v>
-      </c>
-      <c r="D173" s="3">
+      <c r="C173" s="10">
+        <v>30500</v>
+      </c>
+      <c r="D173" s="10">
         <v>4468.87</v>
       </c>
-      <c r="E173" s="3">
-        <v>3497</v>
-      </c>
-      <c r="F173" s="3">
-        <v>0</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="3">
-        <v>22449.626799999998</v>
-      </c>
-      <c r="I173" s="3">
-        <v>1714.4318699999999</v>
-      </c>
-      <c r="J173" s="3">
-        <v>2.1554000000000002</v>
-      </c>
-      <c r="K173" s="3">
+      <c r="E173" s="10">
+        <v>3497.2</v>
+      </c>
+      <c r="F173" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G173" s="10">
+        <v>4265900</v>
+      </c>
+      <c r="H173" s="11">
+        <v>23674.42</v>
+      </c>
+      <c r="I173" s="12">
+        <v>1910.72</v>
+      </c>
+      <c r="J173" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="K173" s="11">
         <v>1148.83</v>
       </c>
-      <c r="L173" s="3">
+      <c r="L173" s="10">
         <v>41.502200000000002</v>
       </c>
-      <c r="M173" s="3">
+      <c r="M173" s="10">
         <v>3.6453000000000002</v>
       </c>
-      <c r="N173" s="3">
+      <c r="N173" s="10">
         <v>28.813800000000001</v>
       </c>
-      <c r="O173" s="3">
+      <c r="O173" s="10">
         <v>145.92869999999999</v>
       </c>
-      <c r="P173" s="3">
+      <c r="P173" s="10">
         <v>35.555100000000003</v>
       </c>
-      <c r="Q173" s="3">
+      <c r="Q173" s="10">
         <v>1964112</v>
       </c>
-      <c r="R173" s="3">
+      <c r="R173" s="10">
         <v>781.07899999999995</v>
       </c>
-      <c r="S173" s="3">
+      <c r="S173" s="10">
         <v>2577.3474999999999</v>
       </c>
-      <c r="T173" s="3">
+      <c r="T173" s="10">
         <v>1087.4385</v>
       </c>
-      <c r="U173" s="3">
+      <c r="U173" s="10">
         <v>1474.7463</v>
       </c>
-      <c r="V173" s="3">
+      <c r="V173" s="10">
         <v>1103.0636999999999</v>
       </c>
-      <c r="W173" s="3">
+      <c r="W173" s="10">
         <v>12610.864600000001</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A174" s="2">
+    <row r="174" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="9">
         <v>42095</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="10">
         <v>9641</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="10">
         <v>29802</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="10">
         <v>4313.3</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="10">
         <v>3409</v>
       </c>
-      <c r="F174" s="3">
-        <v>0</v>
-      </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="3">
-        <v>20996.245500000001</v>
-      </c>
-      <c r="I174" s="3">
-        <v>1595.4699700000001</v>
-      </c>
-      <c r="J174" s="3">
-        <v>2.1091000000000002</v>
-      </c>
-      <c r="K174" s="3">
+      <c r="F174" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="G174" s="10">
+        <v>5063900</v>
+      </c>
+      <c r="H174" s="11">
+        <v>22312.04</v>
+      </c>
+      <c r="I174" s="12">
+        <v>1784.57</v>
+      </c>
+      <c r="J174" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="K174" s="11">
         <v>960.59</v>
       </c>
-      <c r="L174" s="3">
+      <c r="L174" s="10">
         <v>38.8504</v>
       </c>
-      <c r="M174" s="3">
+      <c r="M174" s="10">
         <v>4.5180999999999996</v>
       </c>
-      <c r="N174" s="3">
+      <c r="N174" s="10">
         <v>25.805700000000002</v>
       </c>
-      <c r="O174" s="3">
+      <c r="O174" s="10">
         <v>136.56100000000001</v>
       </c>
-      <c r="P174" s="3">
+      <c r="P174" s="10">
         <v>39.847900000000003</v>
       </c>
-      <c r="Q174" s="3">
+      <c r="Q174" s="10">
         <v>1950056</v>
       </c>
-      <c r="R174" s="3">
+      <c r="R174" s="10">
         <v>781.73839999999996</v>
       </c>
-      <c r="S174" s="3">
+      <c r="S174" s="10">
         <v>2814.2512999999999</v>
       </c>
-      <c r="T174" s="3">
+      <c r="T174" s="10">
         <v>1072.444</v>
       </c>
-      <c r="U174" s="3">
+      <c r="U174" s="10">
         <v>1397.9341999999999</v>
       </c>
-      <c r="V174" s="3">
+      <c r="V174" s="10">
         <v>1085.0314000000001</v>
       </c>
-      <c r="W174" s="3">
+      <c r="W174" s="10">
         <v>11365.425999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A175" s="2">
+    <row r="175" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="9">
         <v>42125</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="10">
         <v>9848</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="10">
         <v>30939</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="10">
         <v>4392.3999999999996</v>
       </c>
-      <c r="E175" s="3">
-        <v>3444</v>
-      </c>
-      <c r="F175" s="3">
-        <v>0</v>
-      </c>
-      <c r="G175" s="3">
-        <v>0</v>
-      </c>
-      <c r="H175" s="3">
-        <v>21649.979300000003</v>
-      </c>
-      <c r="I175" s="3">
-        <v>1607.4112399999999</v>
-      </c>
-      <c r="J175" s="3">
-        <v>2.1522000000000001</v>
-      </c>
-      <c r="K175" s="3">
-        <v>0</v>
-      </c>
-      <c r="L175" s="3">
+      <c r="E175" s="10">
+        <v>3443.8</v>
+      </c>
+      <c r="F175" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="G175" s="10">
+        <v>5464100</v>
+      </c>
+      <c r="H175" s="11">
+        <v>22981.79</v>
+      </c>
+      <c r="I175" s="12">
+        <v>1789.88</v>
+      </c>
+      <c r="J175" s="10">
+        <v>2.12</v>
+      </c>
+      <c r="K175" s="11">
+        <v>936.55</v>
+      </c>
+      <c r="L175" s="10">
         <v>46.813299999999998</v>
       </c>
-      <c r="M175" s="3">
+      <c r="M175" s="10">
         <v>4.3856000000000002</v>
       </c>
-      <c r="N175" s="3">
+      <c r="N175" s="10">
         <v>25.769600000000001</v>
       </c>
-      <c r="O175" s="3">
+      <c r="O175" s="10">
         <v>130.99770000000001</v>
       </c>
-      <c r="P175" s="3">
+      <c r="P175" s="10">
         <v>38.025399999999998</v>
       </c>
-      <c r="Q175" s="3">
+      <c r="Q175" s="10">
         <v>1799334</v>
       </c>
-      <c r="R175" s="3">
+      <c r="R175" s="10">
         <v>828.11159999999995</v>
       </c>
-      <c r="S175" s="3">
+      <c r="S175" s="10">
         <v>3055.0282999999999</v>
       </c>
-      <c r="T175" s="3">
+      <c r="T175" s="10">
         <v>995.64449999999999</v>
       </c>
-      <c r="U175" s="3">
+      <c r="U175" s="10">
         <v>1422.8965000000001</v>
       </c>
-      <c r="V175" s="3">
+      <c r="V175" s="10">
         <v>1096.0165</v>
       </c>
-      <c r="W175" s="3">
+      <c r="W175" s="10">
         <v>11793.4782</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A176" s="2">
+    <row r="176" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="9">
         <v>42156</v>
       </c>
-      <c r="B176" s="3">
-        <v>0</v>
-      </c>
-      <c r="C176" s="3">
-        <v>0</v>
-      </c>
-      <c r="D176" s="3">
-        <v>0</v>
-      </c>
-      <c r="E176" s="3">
-        <v>0</v>
-      </c>
-      <c r="F176" s="3">
-        <v>0</v>
-      </c>
-      <c r="G176" s="3">
-        <v>0</v>
-      </c>
-      <c r="H176" s="3">
-        <v>20728.376100000001</v>
-      </c>
-      <c r="I176" s="3">
-        <v>1516.74522</v>
-      </c>
-      <c r="J176" s="3">
-        <v>0</v>
-      </c>
-      <c r="K176" s="3">
-        <v>0</v>
-      </c>
-      <c r="L176" s="3">
+      <c r="B176" s="10">
+        <v>9842.75</v>
+      </c>
+      <c r="C176" s="10">
+        <v>32672</v>
+      </c>
+      <c r="D176" s="10">
+        <v>4334.5</v>
+      </c>
+      <c r="E176" s="10">
+        <v>3363.5</v>
+      </c>
+      <c r="F176" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="G176" s="10">
+        <v>6396500</v>
+      </c>
+      <c r="H176" s="11">
+        <v>22035.18</v>
+      </c>
+      <c r="I176" s="12">
+        <v>1696.61</v>
+      </c>
+      <c r="J176" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="K176" s="11">
+        <v>926.88</v>
+      </c>
+      <c r="L176" s="10">
         <v>42.749000000000002</v>
       </c>
-      <c r="M176" s="3">
+      <c r="M176" s="10">
         <v>4.1365999999999996</v>
       </c>
-      <c r="N176" s="3">
+      <c r="N176" s="10">
         <v>19.553000000000001</v>
       </c>
-      <c r="O176" s="3">
+      <c r="O176" s="10">
         <v>117.3866</v>
       </c>
-      <c r="P176" s="3">
+      <c r="P176" s="10">
         <v>35.567999999999998</v>
       </c>
-      <c r="Q176" s="3">
+      <c r="Q176" s="10">
         <v>1444399</v>
       </c>
-      <c r="R176" s="3">
+      <c r="R176" s="10">
         <v>793.37540000000001</v>
       </c>
-      <c r="S176" s="3">
+      <c r="S176" s="10">
         <v>2869.7633999999998</v>
       </c>
-      <c r="T176" s="3">
+      <c r="T176" s="10">
         <v>898.54480000000001</v>
       </c>
-      <c r="U176" s="3">
+      <c r="U176" s="10">
         <v>1350.2681</v>
       </c>
-      <c r="V176" s="3">
+      <c r="V176" s="10">
         <v>1041.3091999999999</v>
       </c>
-      <c r="W176" s="3">
+      <c r="W176" s="10">
         <v>11410.292799999999</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A177" s="2">
+    <row r="177" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="9">
         <v>42186</v>
       </c>
-      <c r="B177" s="3">
-        <v>0</v>
-      </c>
-      <c r="C177" s="3">
-        <v>0</v>
-      </c>
-      <c r="D177" s="3">
-        <v>0</v>
-      </c>
-      <c r="E177" s="3">
-        <v>0</v>
-      </c>
-      <c r="F177" s="3">
-        <v>0</v>
-      </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="3">
-        <v>21215.627700000001</v>
-      </c>
-      <c r="I177" s="3">
-        <v>1535.7857899999999</v>
-      </c>
-      <c r="J177" s="3">
-        <v>0</v>
-      </c>
-      <c r="K177" s="3">
-        <v>0</v>
-      </c>
-      <c r="L177" s="3">
+      <c r="B177" s="10">
+        <v>9230.14</v>
+      </c>
+      <c r="C177" s="10">
+        <v>30666</v>
+      </c>
+      <c r="D177" s="10">
+        <v>4353.7</v>
+      </c>
+      <c r="E177" s="10">
+        <v>3657.7</v>
+      </c>
+      <c r="F177" s="10">
+        <v>6</v>
+      </c>
+      <c r="G177" s="10">
+        <v>7885800</v>
+      </c>
+      <c r="H177" s="11">
+        <v>22556.400000000001</v>
+      </c>
+      <c r="I177" s="12">
+        <v>1725.4</v>
+      </c>
+      <c r="J177" s="10">
+        <v>2.48</v>
+      </c>
+      <c r="K177" s="11">
+        <v>1257.5999999999999</v>
+      </c>
+      <c r="L177" s="10">
         <v>46.401600000000002</v>
       </c>
-      <c r="M177" s="3">
+      <c r="M177" s="10">
         <v>5.6933999999999996</v>
       </c>
-      <c r="N177" s="3">
+      <c r="N177" s="10">
         <v>19.3444</v>
       </c>
-      <c r="O177" s="3">
+      <c r="O177" s="10">
         <v>130.03960000000001</v>
       </c>
-      <c r="P177" s="3">
+      <c r="P177" s="10">
         <v>36.896099999999997</v>
       </c>
-      <c r="Q177" s="3">
+      <c r="Q177" s="10">
         <v>1769829</v>
       </c>
-      <c r="R177" s="3">
+      <c r="R177" s="10">
         <v>857.51390000000004</v>
       </c>
-      <c r="S177" s="3">
+      <c r="S177" s="10">
         <v>2667.3044</v>
       </c>
-      <c r="T177" s="3">
+      <c r="T177" s="10">
         <v>1008.6185</v>
       </c>
-      <c r="U177" s="3">
+      <c r="U177" s="10">
         <v>1303.2589</v>
       </c>
-      <c r="V177" s="3">
+      <c r="V177" s="10">
         <v>1019.1339</v>
       </c>
-      <c r="W177" s="3">
+      <c r="W177" s="10">
         <v>11884.967000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="9">
+        <v>42217</v>
+      </c>
+      <c r="B178" s="10">
+        <v>9449.48</v>
+      </c>
+      <c r="C178" s="10">
+        <v>30863</v>
+      </c>
+      <c r="D178" s="10">
+        <v>4434.3999999999996</v>
+      </c>
+      <c r="E178" s="10">
+        <v>3777.9</v>
+      </c>
+      <c r="F178" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="G178" s="10">
+        <v>6942800</v>
+      </c>
+      <c r="H178" s="11">
+        <v>22456.95</v>
+      </c>
+      <c r="I178" s="12">
+        <v>1746.55</v>
+      </c>
+      <c r="J178" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K178" s="11">
+        <v>1286.67</v>
+      </c>
+      <c r="L178" s="10">
+        <v>42.749000000000002</v>
+      </c>
+      <c r="M178" s="10">
+        <v>4.1365999999999996</v>
+      </c>
+      <c r="N178" s="10">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="O178" s="10">
+        <v>117.3866</v>
+      </c>
+      <c r="P178" s="10">
+        <v>35.567999999999998</v>
+      </c>
+      <c r="Q178" s="10">
+        <v>1444399</v>
+      </c>
+      <c r="R178" s="10">
+        <v>793.37540000000001</v>
+      </c>
+      <c r="S178" s="10">
+        <v>2869.7633999999998</v>
+      </c>
+      <c r="T178" s="10">
+        <v>898.54480000000001</v>
+      </c>
+      <c r="U178" s="10">
+        <v>1350.2681</v>
+      </c>
+      <c r="V178" s="10">
+        <v>1041.3091999999999</v>
+      </c>
+      <c r="W178" s="10">
+        <v>11410.292799999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="9">
+        <v>42248</v>
+      </c>
+      <c r="B179" s="10">
+        <v>9468.5</v>
+      </c>
+      <c r="C179" s="10">
+        <v>31268</v>
+      </c>
+      <c r="D179" s="10">
+        <v>4443.1000000000004</v>
+      </c>
+      <c r="E179" s="10">
+        <v>3145.9</v>
+      </c>
+      <c r="F179" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="G179" s="10">
+        <v>7377100</v>
+      </c>
+      <c r="H179" s="11">
+        <v>21675.18</v>
+      </c>
+      <c r="I179" s="12">
+        <v>1700.29</v>
+      </c>
+      <c r="J179" s="10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K179" s="11">
+        <v>1028.49</v>
+      </c>
+      <c r="L179" s="10">
+        <v>50.361499999999999</v>
+      </c>
+      <c r="M179" s="10">
+        <v>5.7215999999999996</v>
+      </c>
+      <c r="N179" s="10">
+        <v>15.8916</v>
+      </c>
+      <c r="O179" s="10">
+        <v>128.613</v>
+      </c>
+      <c r="P179" s="10">
+        <v>40.5441</v>
+      </c>
+      <c r="Q179" s="10">
+        <v>2197426</v>
+      </c>
+      <c r="R179" s="10">
+        <v>809.96119999999996</v>
+      </c>
+      <c r="S179" s="10">
+        <v>2727.4445000000001</v>
+      </c>
+      <c r="T179" s="10">
+        <v>930.57209999999998</v>
+      </c>
+      <c r="U179" s="10">
+        <v>1173.114</v>
+      </c>
+      <c r="V179" s="10">
+        <v>1045.4656</v>
+      </c>
+      <c r="W179" s="10">
+        <v>11207.286599999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="9">
+        <v>42278</v>
+      </c>
+      <c r="B180" s="10">
+        <v>9426.91</v>
+      </c>
+      <c r="C180" s="10">
+        <v>31695</v>
+      </c>
+      <c r="D180" s="10">
+        <v>4424.72</v>
+      </c>
+      <c r="E180" s="10">
+        <v>3107.2</v>
+      </c>
+      <c r="F180" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G180" s="10">
+        <v>7488300</v>
+      </c>
+      <c r="H180" s="11">
+        <v>22548.87</v>
+      </c>
+      <c r="I180" s="12">
+        <v>1799.57</v>
+      </c>
+      <c r="J180" s="10">
+        <v>2.27</v>
+      </c>
+      <c r="K180" s="11">
+        <v>1004.34</v>
+      </c>
+      <c r="L180" s="10">
+        <v>60.936700000000002</v>
+      </c>
+      <c r="M180" s="10">
+        <v>6.6565000000000003</v>
+      </c>
+      <c r="N180" s="10">
+        <v>15.873900000000001</v>
+      </c>
+      <c r="O180" s="10">
+        <v>113.9588</v>
+      </c>
+      <c r="P180" s="10">
+        <v>43.923299999999998</v>
+      </c>
+      <c r="Q180" s="10">
+        <v>2491345</v>
+      </c>
+      <c r="R180" s="10">
+        <v>867.86900000000003</v>
+      </c>
+      <c r="S180" s="10">
+        <v>2793.6608000000001</v>
+      </c>
+      <c r="T180" s="10">
+        <v>885.03679999999997</v>
+      </c>
+      <c r="U180" s="10">
+        <v>1215.0197000000001</v>
+      </c>
+      <c r="V180" s="10">
+        <v>1049.3721</v>
+      </c>
+      <c r="W180" s="10">
+        <v>11521.0327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="9">
+        <v>42309</v>
+      </c>
+      <c r="B181" s="10">
+        <v>9396.1</v>
+      </c>
+      <c r="C181" s="10">
+        <v>32023</v>
+      </c>
+      <c r="D181" s="10">
+        <v>4392</v>
+      </c>
+      <c r="E181" s="10">
+        <v>3531.8</v>
+      </c>
+      <c r="F181" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="G181" s="10">
+        <v>9061800</v>
+      </c>
+      <c r="H181" s="11">
+        <v>21571.5</v>
+      </c>
+      <c r="I181" s="12">
+        <v>1761.53</v>
+      </c>
+      <c r="J181" s="10">
+        <v>1.88</v>
+      </c>
+      <c r="K181" s="11">
+        <v>802.66</v>
+      </c>
+      <c r="L181" s="10">
+        <v>64.437700000000007</v>
+      </c>
+      <c r="M181" s="10">
+        <v>7.1081000000000003</v>
+      </c>
+      <c r="N181" s="10">
+        <v>17.0642</v>
+      </c>
+      <c r="O181" s="10">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="P181" s="10">
+        <v>44.670200000000001</v>
+      </c>
+      <c r="Q181" s="10">
+        <v>2681491</v>
+      </c>
+      <c r="R181" s="10">
+        <v>850.98739999999998</v>
+      </c>
+      <c r="S181" s="10">
+        <v>2513.2665000000002</v>
+      </c>
+      <c r="T181" s="10">
+        <v>742.7088</v>
+      </c>
+      <c r="U181" s="10">
+        <v>1196.2257999999999</v>
+      </c>
+      <c r="V181" s="10">
+        <v>978.97609999999997</v>
+      </c>
+      <c r="W181" s="10">
+        <v>11210.5339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="9">
+        <v>42339</v>
+      </c>
+      <c r="B182" s="10">
+        <v>9537.7000000000007</v>
+      </c>
+      <c r="C182" s="10">
+        <v>31659</v>
+      </c>
+      <c r="D182" s="10">
+        <v>4583</v>
+      </c>
+      <c r="E182" s="10">
+        <v>3855.9</v>
+      </c>
+      <c r="F182" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="G182" s="10">
+        <v>18947400</v>
+      </c>
+      <c r="H182" s="11">
+        <v>22739.77</v>
+      </c>
+      <c r="I182" s="12">
+        <v>1873.93</v>
+      </c>
+      <c r="J182" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="K182" s="11">
+        <v>750.61</v>
+      </c>
+      <c r="L182" s="10">
+        <v>62.4</v>
+      </c>
+      <c r="M182" s="10">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="N182" s="10">
+        <v>21.869900000000001</v>
+      </c>
+      <c r="O182" s="10">
+        <v>139.24350000000001</v>
+      </c>
+      <c r="P182" s="10">
+        <v>47.5398</v>
+      </c>
+      <c r="Q182" s="10">
+        <v>3106608</v>
+      </c>
+      <c r="R182" s="10">
+        <v>839.85019999999997</v>
+      </c>
+      <c r="S182" s="10">
+        <v>2487.8341999999998</v>
+      </c>
+      <c r="T182" s="10">
+        <v>735.36379999999997</v>
+      </c>
+      <c r="U182" s="10">
+        <v>1202.6572000000001</v>
+      </c>
+      <c r="V182" s="10">
+        <v>1024.9924000000001</v>
+      </c>
+      <c r="W182" s="10">
+        <v>12166.653399999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RailIndexPrj/rawdata_monthly.xlsx
+++ b/RailIndexPrj/rawdata_monthly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\railwayIdx-develop\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\newclone\railwayIdx\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -885,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +929,9 @@
     </xf>
     <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1275,13 +1278,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W182"/>
+  <dimension ref="A1:W185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H166" sqref="H166"/>
+      <selection pane="bottomRight" activeCell="R147" sqref="R147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14228,6 +14231,33 @@
         <v>12166.653399999999</v>
       </c>
     </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+      <c r="J185" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RailIndexPrj/rawdata_monthly.xlsx
+++ b/RailIndexPrj/rawdata_monthly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\newclone\railwayIdx\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\铁路景气指数项目\2015年\railwayIdx\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,9 +929,6 @@
     </xf>
     <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -992,7 +989,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1278,13 +1275,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W185"/>
+  <dimension ref="A1:W182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R147" sqref="R147"/>
+      <selection pane="bottomRight" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14231,33 +14228,6 @@
         <v>12166.653399999999</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="16"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="16"/>
-      <c r="J183" s="16"/>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D184" s="16"/>
-      <c r="E184" s="16"/>
-      <c r="F184" s="16"/>
-      <c r="G184" s="16"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="16"/>
-      <c r="J184" s="16"/>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D185" s="16"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="16"/>
-      <c r="I185" s="16"/>
-      <c r="J185" s="16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RailIndexPrj/rawdata_monthly.xlsx
+++ b/RailIndexPrj/rawdata_monthly.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\铁路景气指数项目\2015年\railwayIdx\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuzhi\Documents\GitHub\railwayIdx\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="660" windowWidth="9975" windowHeight="4755"/>
+    <workbookView xWindow="8690" yWindow="660" windowWidth="9980" windowHeight="4760"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_monthly" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>tm</t>
   </si>
@@ -231,11 +231,17 @@
   <si>
     <t>煤(万吨)</t>
   </si>
+  <si>
+    <t>营业里程</t>
+  </si>
+  <si>
+    <t>yylc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +935,9 @@
     </xf>
     <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -989,7 +998,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1275,38 +1284,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W182"/>
+  <dimension ref="A1:X182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D178" sqref="D178"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
     <col min="10" max="10" width="12" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="3" customWidth="1"/>
-    <col min="13" max="16" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="3" customWidth="1"/>
-    <col min="20" max="22" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" style="3" customWidth="1"/>
+    <col min="13" max="16" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.08984375" style="3" customWidth="1"/>
+    <col min="20" max="22" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1376,8 +1386,11 @@
       <c r="W1" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,8 +1460,11 @@
       <c r="W2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>36892</v>
       </c>
@@ -1518,8 +1534,11 @@
       <c r="W3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X3" s="4">
+        <v>69465.792499452102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>36923</v>
       </c>
@@ -1589,8 +1608,11 @@
       <c r="W4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X4" s="4">
+        <v>69562.197718952695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>36951</v>
       </c>
@@ -1660,8 +1682,11 @@
       <c r="W5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X5" s="4">
+        <v>69666.942686044596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>36982</v>
       </c>
@@ -1731,8 +1756,11 @@
       <c r="W6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X6" s="4">
+        <v>69776.740274194395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>37012</v>
       </c>
@@ -1802,8 +1830,11 @@
       <c r="W7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X7" s="4">
+        <v>69889.717213542506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>37043</v>
       </c>
@@ -1873,8 +1904,11 @@
       <c r="W8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X8" s="4">
+        <v>70002.590738642102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>37073</v>
       </c>
@@ -1944,8 +1978,11 @@
       <c r="W9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X9" s="4">
+        <v>70111.949846229007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>37104</v>
       </c>
@@ -2015,8 +2052,11 @@
       <c r="W10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X10" s="4">
+        <v>70215.959782368605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>37135</v>
       </c>
@@ -2086,8 +2126,11 @@
       <c r="W11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11" s="4">
+        <v>70315.839390299705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>37165</v>
       </c>
@@ -2157,8 +2200,11 @@
       <c r="W12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12" s="4">
+        <v>70438.1398164126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>37196</v>
       </c>
@@ -2228,8 +2274,11 @@
       <c r="W13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X13" s="4">
+        <v>70615.4948206728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>37226</v>
       </c>
@@ -2299,8 +2348,11 @@
       <c r="W14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X14" s="4">
+        <v>70850.662015711307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>37257</v>
       </c>
@@ -2370,8 +2422,11 @@
       <c r="W15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X15" s="4">
+        <v>71108.133404453707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>37288</v>
       </c>
@@ -2441,8 +2496,11 @@
       <c r="W16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X16" s="4">
+        <v>71337.501176330697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>37316</v>
       </c>
@@ -2512,8 +2570,11 @@
       <c r="W17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X17" s="4">
+        <v>71508.603631135702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>37347</v>
       </c>
@@ -2583,8 +2644,11 @@
       <c r="W18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X18" s="4">
+        <v>71629.789796642101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>37377</v>
       </c>
@@ -2654,8 +2718,11 @@
       <c r="W19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X19" s="4">
+        <v>71733.886250506199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>37408</v>
       </c>
@@ -2725,8 +2792,11 @@
       <c r="W20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X20" s="4">
+        <v>71842.400949155199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>37438</v>
       </c>
@@ -2796,8 +2866,11 @@
       <c r="W21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X21" s="4">
+        <v>71953.216256302199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>37469</v>
       </c>
@@ -2867,8 +2940,11 @@
       <c r="W22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X22" s="4">
+        <v>72064.620132938799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>37500</v>
       </c>
@@ -2938,8 +3014,11 @@
       <c r="W23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X23" s="4">
+        <v>72177.432194533903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>37530</v>
       </c>
@@ -3009,8 +3088,11 @@
       <c r="W24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X24" s="4">
+        <v>72286.666242111707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>37561</v>
       </c>
@@ -3080,8 +3162,11 @@
       <c r="W25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X25" s="4">
+        <v>72376.400946145804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>37591</v>
       </c>
@@ -3151,8 +3236,11 @@
       <c r="W26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X26" s="4">
+        <v>72438.163543528004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>37622</v>
       </c>
@@ -3222,8 +3310,11 @@
       <c r="W27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X27" s="4">
+        <v>72482.259842045707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>37653</v>
       </c>
@@ -3293,8 +3384,11 @@
       <c r="W28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X28" s="4">
+        <v>72531.865335208306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>37681</v>
       </c>
@@ -3364,8 +3458,11 @@
       <c r="W29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X29" s="4">
+        <v>72606.814109101397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>37712</v>
       </c>
@@ -3435,8 +3532,11 @@
       <c r="W30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X30" s="4">
+        <v>72709.738857656004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>37742</v>
       </c>
@@ -3506,8 +3606,11 @@
       <c r="W31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X31" s="4">
+        <v>72826.492112220803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>37773</v>
       </c>
@@ -3577,8 +3680,11 @@
       <c r="W32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X32" s="4">
+        <v>72941.937428056801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>37803</v>
       </c>
@@ -3648,8 +3754,11 @@
       <c r="W33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X33" s="4">
+        <v>73051.735683671403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>37834</v>
       </c>
@@ -3719,8 +3828,11 @@
       <c r="W34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X34" s="4">
+        <v>73162.270945045806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>37865</v>
       </c>
@@ -3790,8 +3902,11 @@
       <c r="W35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X35" s="4">
+        <v>73275.056530123897</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>37895</v>
       </c>
@@ -3861,8 +3976,11 @@
       <c r="W36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X36" s="4">
+        <v>73379.639022286807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>37926</v>
       </c>
@@ -3932,8 +4050,11 @@
       <c r="W37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X37" s="4">
+        <v>73469.3732100013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37956</v>
       </c>
@@ -4003,8 +4124,11 @@
       <c r="W38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X38" s="4">
+        <v>73548.467198791695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37987</v>
       </c>
@@ -4074,8 +4198,11 @@
       <c r="W39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X39" s="4">
+        <v>73629.513843850204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38018</v>
       </c>
@@ -4145,8 +4272,11 @@
       <c r="W40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X40" s="4">
+        <v>73723.947917265701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38047</v>
       </c>
@@ -4216,8 +4346,11 @@
       <c r="W41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X41" s="4">
+        <v>73833.457905480594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>38078</v>
       </c>
@@ -4287,8 +4420,11 @@
       <c r="W42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X42" s="4">
+        <v>73949.498945683794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38108</v>
       </c>
@@ -4358,8 +4494,11 @@
       <c r="W43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X43" s="4">
+        <v>74061.810671785206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>38139</v>
       </c>
@@ -4429,8 +4568,11 @@
       <c r="W44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X44" s="4">
+        <v>74169.836236518298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>38169</v>
       </c>
@@ -4500,8 +4642,11 @@
       <c r="W45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X45" s="4">
+        <v>74279.132074376001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>38200</v>
       </c>
@@ -4571,8 +4716,11 @@
       <c r="W46" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X46" s="4">
+        <v>74394.081097827904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>38231</v>
       </c>
@@ -4642,8 +4790,11 @@
       <c r="W47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X47" s="4">
+        <v>74513.990463750699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>38261</v>
       </c>
@@ -4713,8 +4864,11 @@
       <c r="W48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X48" s="4">
+        <v>74623.3634798524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>38292</v>
       </c>
@@ -4784,8 +4938,11 @@
       <c r="W49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X49" s="4">
+        <v>74710.731377550197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>38322</v>
       </c>
@@ -4855,8 +5012,11 @@
       <c r="W50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X50" s="4">
+        <v>74778.879677628996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>38353</v>
       </c>
@@ -4926,8 +5086,11 @@
       <c r="W51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X51" s="4">
+        <v>74843.216912349802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>38384</v>
       </c>
@@ -4997,8 +5160,11 @@
       <c r="W52" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X52" s="4">
+        <v>74920.597749498906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>38412</v>
       </c>
@@ -5068,8 +5234,11 @@
       <c r="W53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X53" s="4">
+        <v>75017.1588969804</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>38443</v>
       </c>
@@ -5139,8 +5308,11 @@
       <c r="W54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X54" s="4">
+        <v>75125.545905067906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>38473</v>
       </c>
@@ -5210,8 +5382,11 @@
       <c r="W55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X55" s="4">
+        <v>75234.440809345004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>38504</v>
       </c>
@@ -5281,8 +5456,11 @@
       <c r="W56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X56" s="4">
+        <v>75346.947265978495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>38534</v>
       </c>
@@ -5352,8 +5530,11 @@
       <c r="W57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X57" s="4">
+        <v>75467.202923059303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>38565</v>
       </c>
@@ -5423,8 +5604,11 @@
       <c r="W58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X58" s="4">
+        <v>75594.137590405604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>38596</v>
       </c>
@@ -5494,8 +5678,11 @@
       <c r="W59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X59" s="4">
+        <v>75730.621403954006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>38626</v>
       </c>
@@ -5565,8 +5752,11 @@
       <c r="W60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X60" s="4">
+        <v>75884.260869450794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>38657</v>
       </c>
@@ -5636,8 +5826,11 @@
       <c r="W61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X61" s="4">
+        <v>76055.417735044903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>38687</v>
       </c>
@@ -5707,8 +5900,11 @@
       <c r="W62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X62" s="4">
+        <v>76230.184847091004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>38718</v>
       </c>
@@ -5778,8 +5974,11 @@
       <c r="W63" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X63" s="4">
+        <v>76387.694808829503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>38749</v>
       </c>
@@ -5849,8 +6048,11 @@
       <c r="W64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X64" s="4">
+        <v>76514.937818822204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>38777</v>
       </c>
@@ -5920,8 +6122,11 @@
       <c r="W65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X65" s="4">
+        <v>76616.688902655005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>38808</v>
       </c>
@@ -5991,8 +6196,11 @@
       <c r="W66" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X66" s="4">
+        <v>76712.687200735498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>38838</v>
       </c>
@@ -6062,8 +6270,11 @@
       <c r="W67" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X67" s="4">
+        <v>76821.759858658406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>38869</v>
       </c>
@@ -6133,8 +6344,11 @@
       <c r="W68" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X68" s="4">
+        <v>76953.781682440094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>38899</v>
       </c>
@@ -6204,8 +6418,11 @@
       <c r="W69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X69" s="4">
+        <v>77118.564836842197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>38930</v>
       </c>
@@ -6275,8 +6492,11 @@
       <c r="W70" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X70" s="4">
+        <v>77299.971041135606</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>38961</v>
       </c>
@@ -6346,8 +6566,11 @@
       <c r="W71" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X71" s="4">
+        <v>77461.618974298806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>38991</v>
       </c>
@@ -6417,8 +6640,11 @@
       <c r="W72" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X72" s="4">
+        <v>77555.999382671595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39022</v>
       </c>
@@ -6488,8 +6714,11 @@
       <c r="W73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X73" s="4">
+        <v>77555.033562047305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39052</v>
       </c>
@@ -6559,8 +6788,11 @@
       <c r="W74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X74" s="4">
+        <v>77476.219630350795</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39083</v>
       </c>
@@ -6630,8 +6862,11 @@
       <c r="W75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X75" s="4">
+        <v>77379.944715016405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39114</v>
       </c>
@@ -6701,8 +6936,11 @@
       <c r="W76" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X76" s="4">
+        <v>77331.725066699495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39142</v>
       </c>
@@ -6772,8 +7010,11 @@
       <c r="W77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X77" s="4">
+        <v>77362.170385278296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39173</v>
       </c>
@@ -6843,8 +7084,11 @@
       <c r="W78" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X78" s="4">
+        <v>77461.855273367706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39203</v>
       </c>
@@ -6914,8 +7158,11 @@
       <c r="W79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X79" s="4">
+        <v>77612.525190557601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39234</v>
       </c>
@@ -6985,8 +7232,11 @@
       <c r="W80" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X80" s="4">
+        <v>77790.316571068906</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39264</v>
       </c>
@@ -7056,8 +7306,11 @@
       <c r="W81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X81" s="4">
+        <v>77993.045931795903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39295</v>
       </c>
@@ -7127,8 +7380,11 @@
       <c r="W82" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X82" s="4">
+        <v>78229.349620298104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>39326</v>
       </c>
@@ -7198,8 +7454,11 @@
       <c r="W83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X83" s="4">
+        <v>78487.041863243503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39356</v>
       </c>
@@ -7269,8 +7528,11 @@
       <c r="W84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X84" s="4">
+        <v>78716.642370952497</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39387</v>
       </c>
@@ -7340,8 +7602,11 @@
       <c r="W85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X85" s="4">
+        <v>78865.824603561894</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39417</v>
       </c>
@@ -7411,8 +7676,11 @@
       <c r="W86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X86" s="4">
+        <v>78909.849437177007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39448</v>
       </c>
@@ -7482,8 +7750,11 @@
       <c r="W87" s="11">
         <v>11003.809800000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X87" s="4">
+        <v>78883.203728812296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39479</v>
       </c>
@@ -7553,8 +7824,11 @@
       <c r="W88" s="11">
         <v>11258.7039</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X88" s="4">
+        <v>78861.695571365606</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39508</v>
       </c>
@@ -7624,8 +7898,11 @@
       <c r="W89" s="11">
         <v>11321.6402</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X89" s="4">
+        <v>78911.401997136694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39539</v>
       </c>
@@ -7695,8 +7972,11 @@
       <c r="W90" s="11">
         <v>10878.875400000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X90" s="4">
+        <v>79049.121257402803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39569</v>
       </c>
@@ -7766,8 +8046,11 @@
       <c r="W91" s="11">
         <v>11296.4941</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X91" s="4">
+        <v>79248.405576470206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39600</v>
       </c>
@@ -7837,8 +8120,11 @@
       <c r="W92" s="11">
         <v>11006.838</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X92" s="4">
+        <v>79481.376463064298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>39630</v>
       </c>
@@ -7908,8 +8194,11 @@
       <c r="W93" s="11">
         <v>11448.0198</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X93" s="4">
+        <v>79725.623183596006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>39661</v>
       </c>
@@ -7979,8 +8268,11 @@
       <c r="W94" s="11">
         <v>12325.1376</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X94" s="4">
+        <v>79980.511746997407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>39692</v>
       </c>
@@ -8050,8 +8342,11 @@
       <c r="W95" s="11">
         <v>11778.5461</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X95" s="4">
+        <v>80284.248370351299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>39722</v>
       </c>
@@ -8121,8 +8416,11 @@
       <c r="W96" s="11">
         <v>12095.538200000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X96" s="4">
+        <v>80706.025435111398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>39753</v>
       </c>
@@ -8192,8 +8490,11 @@
       <c r="W97" s="11">
         <v>10252.8786</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X97" s="4">
+        <v>81304.163556563901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39783</v>
       </c>
@@ -8263,8 +8564,11 @@
       <c r="W98" s="11">
         <v>9658.7237999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X98" s="4">
+        <v>82080.808055315603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>39814</v>
       </c>
@@ -8334,8 +8638,11 @@
       <c r="W99" s="11">
         <v>10458.1723</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X99" s="4">
+        <v>82939.666731375895</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>39845</v>
       </c>
@@ -8405,8 +8712,11 @@
       <c r="W100" s="11">
         <v>9657.5349999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X100" s="4">
+        <v>83730.189575005003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>39873</v>
       </c>
@@ -8476,8 +8786,11 @@
       <c r="W101" s="11">
         <v>10585.2292</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X101" s="4">
+        <v>84342.361521425701</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>39904</v>
       </c>
@@ -8547,8 +8860,11 @@
       <c r="W102" s="11">
         <v>10368.617700000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X102" s="4">
+        <v>84764.893937505505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>39934</v>
       </c>
@@ -8618,8 +8934,11 @@
       <c r="W103" s="11">
         <v>11030.8469</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X103" s="4">
+        <v>85063.757393688895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39965</v>
       </c>
@@ -8689,8 +9008,11 @@
       <c r="W104" s="11">
         <v>10965.0841</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X104" s="4">
+        <v>85326.012768389395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>39995</v>
       </c>
@@ -8760,8 +9082,11 @@
       <c r="W105" s="11">
         <v>11527.842699999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X105" s="4">
+        <v>85603.533276018105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>40026</v>
       </c>
@@ -8831,8 +9156,11 @@
       <c r="W106" s="11">
         <v>11436.3405</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X106" s="4">
+        <v>85905.146322570596</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>40057</v>
       </c>
@@ -8902,8 +9230,11 @@
       <c r="W107" s="11">
         <v>11251.5285</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X107" s="4">
+        <v>86239.769833285405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>40087</v>
       </c>
@@ -8973,8 +9304,11 @@
       <c r="W108" s="11">
         <v>11813.231</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X108" s="4">
+        <v>86659.347738106095</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>40118</v>
       </c>
@@ -9044,8 +9378,11 @@
       <c r="W109" s="11">
         <v>11500.8176</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X109" s="4">
+        <v>87206.760970983101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>40148</v>
       </c>
@@ -9115,8 +9452,11 @@
       <c r="W110" s="11">
         <v>12124.907999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X110" s="4">
+        <v>87884.163133379407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>40179</v>
       </c>
@@ -9186,8 +9526,11 @@
       <c r="W111" s="11">
         <v>13302.082899999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X111" s="4">
+        <v>88624.616725463799</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>40210</v>
       </c>
@@ -9257,8 +9600,11 @@
       <c r="W112" s="11">
         <v>12200.055</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X112" s="4">
+        <v>89319.824242122602</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>40238</v>
       </c>
@@ -9328,8 +9674,11 @@
       <c r="W113" s="11">
         <v>13000.578100000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X113" s="4">
+        <v>89892.090307976701</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>40269</v>
       </c>
@@ -9399,8 +9748,11 @@
       <c r="W114" s="11">
         <v>12176.9617</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X114" s="4">
+        <v>90329.616659972104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>40299</v>
       </c>
@@ -9470,8 +9822,11 @@
       <c r="W115" s="11">
         <v>13128.1227</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X115" s="4">
+        <v>90676.923749499096</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>40330</v>
       </c>
@@ -9541,8 +9896,11 @@
       <c r="W116" s="11">
         <v>13022.003500000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X116" s="4">
+        <v>90986.489857775799</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>40360</v>
       </c>
@@ -9612,8 +9970,11 @@
       <c r="W117" s="11">
         <v>13411.277</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X117" s="4">
+        <v>91304.621642696395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>40391</v>
       </c>
@@ -9683,8 +10044,11 @@
       <c r="W118" s="11">
         <v>13137.7646</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X118" s="4">
+        <v>91658.070219049303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>40422</v>
       </c>
@@ -9754,8 +10118,11 @@
       <c r="W119" s="11">
         <v>12654.7273</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X119" s="4">
+        <v>92038.733643796702</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>40452</v>
       </c>
@@ -9825,8 +10192,11 @@
       <c r="W120" s="11">
         <v>13369.1494</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X120" s="4">
+        <v>92358.4465056193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>40483</v>
       </c>
@@ -9896,8 +10266,11 @@
       <c r="W121" s="11">
         <v>13066.618399999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X121" s="4">
+        <v>92493.200804694497</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>40513</v>
       </c>
@@ -9967,8 +10340,11 @@
       <c r="W122" s="11">
         <v>13550.6561</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X122" s="4">
+        <v>92399.479134698006</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>40544</v>
       </c>
@@ -10038,8 +10414,11 @@
       <c r="W123" s="11">
         <v>14750.365900000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X123" s="4">
+        <v>92182.542198120806</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>40575</v>
       </c>
@@ -10109,8 +10488,11 @@
       <c r="W124" s="11">
         <v>13284.505499999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X124" s="4">
+        <v>92027.170615242401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>40603</v>
       </c>
@@ -10180,8 +10562,11 @@
       <c r="W125" s="11">
         <v>14353.2294</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X125" s="4">
+        <v>92070.473339664895</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>40634</v>
       </c>
@@ -10251,8 +10636,11 @@
       <c r="W126" s="11">
         <v>13394.892900000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X126" s="4">
+        <v>92328.328837635607</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>40664</v>
       </c>
@@ -10322,8 +10710,11 @@
       <c r="W127" s="11">
         <v>14591.3595</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X127" s="4">
+        <v>92710.783159422295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>40695</v>
       </c>
@@ -10393,8 +10784,11 @@
       <c r="W128" s="11">
         <v>14207.3174</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X128" s="4">
+        <v>93120.078814192399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>40725</v>
       </c>
@@ -10464,8 +10858,11 @@
       <c r="W129" s="11">
         <v>14537.8218</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X129" s="4">
+        <v>93526.840058281799</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>40756</v>
       </c>
@@ -10535,8 +10932,11 @@
       <c r="W130" s="11">
         <v>14525.284900000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X130" s="4">
+        <v>93928.159569518306</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>40787</v>
       </c>
@@ -10606,8 +11006,11 @@
       <c r="W131" s="11">
         <v>14153.430899999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X131" s="4">
+        <v>94284.378189180206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>40817</v>
       </c>
@@ -10677,8 +11080,11 @@
       <c r="W132" s="11">
         <v>14810.0839</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X132" s="4">
+        <v>94589.861590550398</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>40848</v>
       </c>
@@ -10748,8 +11154,11 @@
       <c r="W133" s="11">
         <v>14623.076300000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X133" s="4">
+        <v>94893.363249831906</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>40878</v>
       </c>
@@ -10819,8 +11228,11 @@
       <c r="W134" s="11">
         <v>14894.3678</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X134" s="4">
+        <v>95240.482730405798</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>40909</v>
       </c>
@@ -10890,8 +11302,11 @@
       <c r="W135" s="11">
         <v>15507.697399999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X135" s="4">
+        <v>95633.079764546506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>40940</v>
       </c>
@@ -10961,8 +11376,11 @@
       <c r="W136" s="11">
         <v>13918.980100000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X136" s="4">
+        <v>96042.220308474803</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>40969</v>
       </c>
@@ -11032,8 +11450,11 @@
       <c r="W137" s="11">
         <v>15069.61</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X137" s="4">
+        <v>96425.299509761506</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>41000</v>
       </c>
@@ -11103,8 +11524,11 @@
       <c r="W138" s="11">
         <v>14294.8838</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X138" s="4">
+        <v>96770.846797381804</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>41030</v>
       </c>
@@ -11174,8 +11598,11 @@
       <c r="W139" s="11">
         <v>15104.1654</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X139" s="4">
+        <v>97111.071614621396</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>41061</v>
       </c>
@@ -11245,8 +11672,11 @@
       <c r="W140" s="11">
         <v>13431.0769</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X140" s="4">
+        <v>97489.018995609702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>41091</v>
       </c>
@@ -11316,8 +11746,11 @@
       <c r="W141" s="11">
         <v>12733.4807</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X141" s="4">
+        <v>97883.246262803397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>41122</v>
       </c>
@@ -11387,8 +11820,11 @@
       <c r="W142" s="11">
         <v>12716.982599999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X142" s="4">
+        <v>98257.226823684003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>41153</v>
       </c>
@@ -11458,8 +11894,11 @@
       <c r="W143" s="11">
         <v>12988.6618</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X143" s="4">
+        <v>98621.657007899805</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>41183</v>
       </c>
@@ -11529,8 +11968,11 @@
       <c r="W144" s="11">
         <v>13791.8182</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X144" s="4">
+        <v>99023.565112794706</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>41214</v>
       </c>
@@ -11600,8 +12042,11 @@
       <c r="W145" s="11">
         <v>14184.6173</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X145" s="4">
+        <v>99528.4597016716</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>41244</v>
       </c>
@@ -11671,8 +12116,11 @@
       <c r="W146" s="11">
         <v>14773.317999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X146" s="4">
+        <v>100146.24149685699</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>41275</v>
       </c>
@@ -11742,8 +12190,11 @@
       <c r="W147" s="11">
         <v>15092.9691</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X147" s="4">
+        <v>100805.094614844</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>41306</v>
       </c>
@@ -11813,8 +12264,11 @@
       <c r="W148" s="11">
         <v>13575.2745</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X148" s="4">
+        <v>101405.585709709</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>41334</v>
       </c>
@@ -11884,8 +12338,11 @@
       <c r="W149" s="11">
         <v>14390.6554</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X149" s="4">
+        <v>101893.673592098</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>41365</v>
       </c>
@@ -11955,8 +12412,11 @@
       <c r="W150" s="11">
         <v>13017.447099999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X150" s="4">
+        <v>102277.87159865499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>41395</v>
       </c>
@@ -12026,8 +12486,11 @@
       <c r="W151" s="11">
         <v>13630.323899999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X151" s="4">
+        <v>102610.485374474</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>41426</v>
       </c>
@@ -12097,8 +12560,11 @@
       <c r="W152" s="11">
         <v>13229.995000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X152" s="4">
+        <v>102927.996933742</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>41456</v>
       </c>
@@ -12168,8 +12634,11 @@
       <c r="W153" s="11">
         <v>13507.477699999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X153" s="4">
+        <v>103255.901278896</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>41487</v>
       </c>
@@ -12239,8 +12708,11 @@
       <c r="W154" s="11">
         <v>13781.4836</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X154" s="4">
+        <v>103610.572452504</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>41518</v>
       </c>
@@ -12310,8 +12782,11 @@
       <c r="W155" s="11">
         <v>13919.399799999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X155" s="4">
+        <v>103988.562887782</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>41548</v>
       </c>
@@ -12381,8 +12856,11 @@
       <c r="W156" s="11">
         <v>14557.1441</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X156" s="4">
+        <v>104366.45278794201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>41579</v>
       </c>
@@ -12452,8 +12930,11 @@
       <c r="W157" s="11">
         <v>14355.6613</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X157" s="4">
+        <v>104722.005842642</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>41609</v>
       </c>
@@ -12523,8 +13004,11 @@
       <c r="W158" s="11">
         <v>14887.8272</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X158" s="4">
+        <v>105040.93031870401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>41640</v>
       </c>
@@ -12594,8 +13078,11 @@
       <c r="W159" s="11">
         <v>15711.124100000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X159" s="4">
+        <v>103144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>41671</v>
       </c>
@@ -12665,8 +13152,11 @@
       <c r="W160" s="11">
         <v>12827.6798</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X160" s="4">
+        <v>103144</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>41699</v>
       </c>
@@ -12736,8 +13226,11 @@
       <c r="W161" s="11">
         <v>14127.9946</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X161" s="4">
+        <v>103223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>41730</v>
       </c>
@@ -12807,8 +13300,11 @@
       <c r="W162" s="11">
         <v>12897.935299999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X162" s="4">
+        <v>103559</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>41760</v>
       </c>
@@ -12878,8 +13374,11 @@
       <c r="W163" s="11">
         <v>13643.463400000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X163" s="4">
+        <v>103826</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>41791</v>
       </c>
@@ -12949,8 +13448,11 @@
       <c r="W164" s="11">
         <v>13263.620699999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X164" s="4">
+        <v>104058.75399999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>41821</v>
       </c>
@@ -13020,8 +13522,11 @@
       <c r="W165" s="11">
         <v>13410.494000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X165" s="4">
+        <v>104602.55399999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>41852</v>
       </c>
@@ -13091,8 +13596,11 @@
       <c r="W166" s="11">
         <v>13721.107900000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X166" s="4">
+        <v>104946.954</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>41883</v>
       </c>
@@ -13162,8 +13670,11 @@
       <c r="W167" s="11">
         <v>13337.509400000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X167" s="4">
+        <v>105480.92099999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>41913</v>
       </c>
@@ -13233,8 +13744,11 @@
       <c r="W168" s="11">
         <v>13946.722</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X168" s="4">
+        <v>105480.92099999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>41944</v>
       </c>
@@ -13304,8 +13818,11 @@
       <c r="W169" s="11">
         <v>13521.3989</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X169" s="4">
+        <v>106309.12099999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>41974</v>
       </c>
@@ -13375,8 +13892,11 @@
       <c r="W170" s="11">
         <v>13721.522999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X170" s="4">
+        <v>111821.00200000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>42005</v>
       </c>
@@ -13446,8 +13966,11 @@
       <c r="W171" s="12">
         <v>14545.4067</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X171" s="16">
+        <v>111821.00200000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>42036</v>
       </c>
@@ -13517,8 +14040,11 @@
       <c r="W172" s="12">
         <v>11898.2256</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X172" s="16">
+        <v>112052.00234000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>42064</v>
       </c>
@@ -13588,8 +14114,11 @@
       <c r="W173" s="12">
         <v>12610.864600000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X173" s="16">
+        <v>112086.18934000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>42095</v>
       </c>
@@ -13659,8 +14188,11 @@
       <c r="W174" s="12">
         <v>11365.425999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X174" s="16">
+        <v>112086.18934000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9">
         <v>42125</v>
       </c>
@@ -13730,8 +14262,11 @@
       <c r="W175" s="12">
         <v>11793.4782</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X175" s="16">
+        <v>112303.18934000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>42156</v>
       </c>
@@ -13801,8 +14336,11 @@
       <c r="W176" s="12">
         <v>11410.292799999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X176" s="16">
+        <v>112303.18934000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>42186</v>
       </c>
@@ -13872,8 +14410,11 @@
       <c r="W177" s="12">
         <v>11884.967000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X177" s="16">
+        <v>113883.64334000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>42217</v>
       </c>
@@ -13943,8 +14484,11 @@
       <c r="W178" s="12">
         <v>11410.292799999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X178" s="16">
+        <v>114199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>42248</v>
       </c>
@@ -14014,8 +14558,11 @@
       <c r="W179" s="12">
         <v>11207.286599999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X179" s="16">
+        <v>115179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9">
         <v>42278</v>
       </c>
@@ -14085,8 +14632,11 @@
       <c r="W180" s="12">
         <v>11521.0327</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X180" s="16">
+        <v>115322</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9">
         <v>42309</v>
       </c>
@@ -14156,8 +14706,11 @@
       <c r="W181" s="12">
         <v>11210.5339</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X181" s="16">
+        <v>115492</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>42339</v>
       </c>
@@ -14226,6 +14779,9 @@
       </c>
       <c r="W182" s="12">
         <v>12166.653399999999</v>
+      </c>
+      <c r="X182" s="16">
+        <v>120969</v>
       </c>
     </row>
   </sheetData>

--- a/RailIndexPrj/rawdata_monthly.xlsx
+++ b/RailIndexPrj/rawdata_monthly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\铁路景气指数项目\2015年\railwayIdx\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\原D\桌面\常用文件夹\铁路景气指数\APP\railwayIdx\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1278,10 +1278,10 @@
   <dimension ref="A1:W182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D178" sqref="D178"/>
+      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7435,10 +7435,10 @@
         <v>665017</v>
       </c>
       <c r="H87" s="13">
-        <v>20606.607600000003</v>
+        <v>22400.790099999998</v>
       </c>
       <c r="I87" s="13">
-        <v>1578.4774199999999</v>
+        <v>1843.0815500000001</v>
       </c>
       <c r="J87" s="13">
         <v>1.19</v>
@@ -7506,10 +7506,10 @@
         <v>884488</v>
       </c>
       <c r="H88" s="13">
-        <v>19915.931799999998</v>
+        <v>21311.417300000001</v>
       </c>
       <c r="I88" s="13">
-        <v>1527.1254799999999</v>
+        <v>1732.7379699999999</v>
       </c>
       <c r="J88" s="13">
         <v>1.29</v>
@@ -7577,10 +7577,10 @@
         <v>1591647</v>
       </c>
       <c r="H89" s="13">
-        <v>22015.914699999998</v>
+        <v>23910.230599999999</v>
       </c>
       <c r="I89" s="13">
-        <v>1814.0327400000001</v>
+        <v>2098.7101699999998</v>
       </c>
       <c r="J89" s="13">
         <v>1.19</v>
@@ -7648,10 +7648,10 @@
         <v>1848328</v>
       </c>
       <c r="H90" s="13">
-        <v>21362.847900000001</v>
+        <v>23212.720300000001</v>
       </c>
       <c r="I90" s="13">
-        <v>1744.9775099999999</v>
+        <v>2017.6318799999999</v>
       </c>
       <c r="J90" s="13">
         <v>1.1599999999999999</v>
@@ -7719,10 +7719,10 @@
         <v>2681798</v>
       </c>
       <c r="H91" s="13">
-        <v>22022.602199999998</v>
+        <v>23791.485499999999</v>
       </c>
       <c r="I91" s="13">
-        <v>1784.26235</v>
+        <v>2039.2461900000001</v>
       </c>
       <c r="J91" s="13">
         <v>1.17</v>
@@ -7790,10 +7790,10 @@
         <v>2712699</v>
       </c>
       <c r="H92" s="13">
-        <v>21516.3943</v>
+        <v>23227.533800000001</v>
       </c>
       <c r="I92" s="13">
-        <v>1749.1638</v>
+        <v>1998.99479</v>
       </c>
       <c r="J92" s="13">
         <v>1.1499999999999999</v>
@@ -7861,10 +7861,10 @@
         <v>2993854</v>
       </c>
       <c r="H93" s="13">
-        <v>21967.5926</v>
+        <v>23718.263200000001</v>
       </c>
       <c r="I93" s="13">
-        <v>1749.6724400000001</v>
+        <v>2008.6311000000001</v>
       </c>
       <c r="J93" s="13">
         <v>1.38</v>
@@ -7932,10 +7932,10 @@
         <v>3602575</v>
       </c>
       <c r="H94" s="13">
-        <v>22737.873100000001</v>
+        <v>24413.891199999998</v>
       </c>
       <c r="I94" s="13">
-        <v>1806.3835799999999</v>
+        <v>2056.75407</v>
       </c>
       <c r="J94" s="13">
         <v>1.41</v>
@@ -8003,10 +8003,10 @@
         <v>4191832</v>
       </c>
       <c r="H95" s="13">
-        <v>21771.232100000001</v>
+        <v>23435.1302</v>
       </c>
       <c r="I95" s="13">
-        <v>1745.2650900000001</v>
+        <v>1990.1622199999999</v>
       </c>
       <c r="J95" s="13">
         <v>1.25</v>
@@ -8074,10 +8074,10 @@
         <v>4391564</v>
       </c>
       <c r="H96" s="13">
-        <v>21685.3917</v>
+        <v>23341.2333</v>
       </c>
       <c r="I96" s="13">
-        <v>1751.51124</v>
+        <v>1998.01306</v>
       </c>
       <c r="J96" s="13">
         <v>1.26</v>
@@ -8145,10 +8145,10 @@
         <v>4917181</v>
       </c>
       <c r="H97" s="13">
-        <v>19066.0707</v>
+        <v>20624.021499999999</v>
       </c>
       <c r="I97" s="13">
-        <v>1547.0263500000001</v>
+        <v>1775.2937099999999</v>
       </c>
       <c r="J97" s="13">
         <v>1.08</v>
@@ -8216,10 +8216,10 @@
         <v>10963930</v>
       </c>
       <c r="H98" s="13">
-        <v>18920.072899999999</v>
+        <v>20545.577499999999</v>
       </c>
       <c r="I98" s="13">
-        <v>1557.9837299999999</v>
+        <v>1801.0660499999999</v>
       </c>
       <c r="J98" s="13">
         <v>1.03</v>
@@ -8287,10 +8287,10 @@
         <v>4217589</v>
       </c>
       <c r="H99" s="13">
-        <v>19850.9745</v>
+        <v>21201.427</v>
       </c>
       <c r="I99" s="13">
-        <v>1543.40049</v>
+        <v>1753.1362799999999</v>
       </c>
       <c r="J99" s="13">
         <v>1.33</v>
@@ -8358,10 +8358,10 @@
         <v>3326953</v>
       </c>
       <c r="H100" s="13">
-        <v>18643.157500000001</v>
+        <v>19993.452700000002</v>
       </c>
       <c r="I100" s="13">
-        <v>1494.22343</v>
+        <v>1711.4225899999999</v>
       </c>
       <c r="J100" s="13">
         <v>1.36</v>
@@ -8429,10 +8429,10 @@
         <v>3326953</v>
       </c>
       <c r="H101" s="13">
-        <v>20808.365399999999</v>
+        <v>22516.452700000002</v>
       </c>
       <c r="I101" s="13">
-        <v>1695.82025</v>
+        <v>1957.8561099999999</v>
       </c>
       <c r="J101" s="13">
         <v>1.18</v>
@@ -8500,10 +8500,10 @@
         <v>4259239</v>
       </c>
       <c r="H102" s="13">
-        <v>20327.752</v>
+        <v>22021.061799999999</v>
       </c>
       <c r="I102" s="13">
-        <v>1604.77097</v>
+        <v>1849.29837</v>
       </c>
       <c r="J102" s="13">
         <v>1.25</v>
@@ -8571,10 +8571,10 @@
         <v>5093126</v>
       </c>
       <c r="H103" s="13">
-        <v>21431.259599999998</v>
+        <v>23072.110700000001</v>
       </c>
       <c r="I103" s="13">
-        <v>1671.6359199999999</v>
+        <v>1903.61968</v>
       </c>
       <c r="J103" s="13">
         <v>1.29</v>
@@ -8642,10 +8642,10 @@
         <v>6299442</v>
       </c>
       <c r="H104" s="13">
-        <v>21227.627999999997</v>
+        <v>22822.763999999999</v>
       </c>
       <c r="I104" s="13">
-        <v>1651.94344</v>
+        <v>1881.9430400000001</v>
       </c>
       <c r="J104" s="13">
         <v>1.1499999999999999</v>
@@ -8713,10 +8713,10 @@
         <v>4974446</v>
       </c>
       <c r="H105" s="13">
-        <v>22190.5959</v>
+        <v>23873.509600000001</v>
       </c>
       <c r="I105" s="13">
-        <v>1733.3729800000001</v>
+        <v>1975.34321</v>
       </c>
       <c r="J105" s="13">
         <v>1.42</v>
@@ -8784,10 +8784,10 @@
         <v>5072651</v>
       </c>
       <c r="H106" s="13">
-        <v>22503.417699999998</v>
+        <v>24201.473000000002</v>
       </c>
       <c r="I106" s="13">
-        <v>1800.1028699999999</v>
+        <v>2047.6287</v>
       </c>
       <c r="J106" s="13">
         <v>1.5</v>
@@ -8855,10 +8855,10 @@
         <v>5548402</v>
       </c>
       <c r="H107" s="13">
-        <v>21904.083999999999</v>
+        <v>23624.0802</v>
       </c>
       <c r="I107" s="13">
-        <v>1770.49784</v>
+        <v>2018.5411200000001</v>
       </c>
       <c r="J107" s="13">
         <v>1.22</v>
@@ -8926,10 +8926,10 @@
         <v>5491223</v>
       </c>
       <c r="H108" s="13">
-        <v>23078.2889</v>
+        <v>24723.562300000001</v>
       </c>
       <c r="I108" s="13">
-        <v>1869.4728399999999</v>
+        <v>2110.01998</v>
       </c>
       <c r="J108" s="13">
         <v>1.36</v>
@@ -8997,10 +8997,10 @@
         <v>6445701</v>
       </c>
       <c r="H109" s="13">
-        <v>22043.756600000001</v>
+        <v>23624.597099999999</v>
       </c>
       <c r="I109" s="13">
-        <v>1778.4389000000001</v>
+        <v>2012.6469400000001</v>
       </c>
       <c r="J109" s="13">
         <v>1.1100000000000001</v>
@@ -9068,10 +9068,10 @@
         <v>19403318</v>
       </c>
       <c r="H110" s="13">
-        <v>22955.3439</v>
+        <v>24601.172399999999</v>
       </c>
       <c r="I110" s="13">
-        <v>1882.4127000000001</v>
+        <v>2133.0484900000001</v>
       </c>
       <c r="J110" s="13">
         <v>1.0900000000000001</v>
@@ -9139,10 +9139,10 @@
         <v>3218398</v>
       </c>
       <c r="H111" s="13">
-        <v>24116.1996</v>
+        <v>25768.079900000001</v>
       </c>
       <c r="I111" s="13">
-        <v>1916.86724</v>
+        <v>2169.54477</v>
       </c>
       <c r="J111" s="13">
         <v>1.27</v>
@@ -9210,10 +9210,10 @@
         <v>2178399</v>
       </c>
       <c r="H112" s="13">
-        <v>22173.0268</v>
+        <v>23449.898799999999</v>
       </c>
       <c r="I112" s="13">
-        <v>1691.5516</v>
+        <v>1879.6515400000001</v>
       </c>
       <c r="J112" s="13">
         <v>1.42</v>
@@ -9281,10 +9281,10 @@
         <v>3539164</v>
       </c>
       <c r="H113" s="13">
-        <v>24783.2484</v>
+        <v>26486.6368</v>
       </c>
       <c r="I113" s="13">
-        <v>1945.2860900000001</v>
+        <v>2205.1802600000001</v>
       </c>
       <c r="J113" s="13">
         <v>1.41</v>
@@ -9352,10 +9352,10 @@
         <v>5308147</v>
       </c>
       <c r="H114" s="13">
-        <v>23563.861499999999</v>
+        <v>25260.940500000001</v>
       </c>
       <c r="I114" s="13">
-        <v>1853.88005</v>
+        <v>2110.1222600000001</v>
       </c>
       <c r="J114" s="13">
         <v>1.33</v>
@@ -9423,10 +9423,10 @@
         <v>5723503</v>
       </c>
       <c r="H115" s="13">
-        <v>24598.201499999999</v>
+        <v>26355.857100000001</v>
       </c>
       <c r="I115" s="13">
-        <v>1955.6859400000001</v>
+        <v>2214.8834700000002</v>
       </c>
       <c r="J115" s="13">
         <v>1.38</v>
@@ -9494,10 +9494,10 @@
         <v>7169805</v>
       </c>
       <c r="H116" s="13">
-        <v>23864.174199999998</v>
+        <v>25460.513500000001</v>
       </c>
       <c r="I116" s="13">
-        <v>1862.25747</v>
+        <v>2097.6743799999999</v>
       </c>
       <c r="J116" s="13">
         <v>1.34</v>
@@ -9565,10 +9565,10 @@
         <v>5673465</v>
       </c>
       <c r="H117" s="13">
-        <v>24559.2173</v>
+        <v>26196.019799999998</v>
       </c>
       <c r="I117" s="13">
-        <v>1879.9648</v>
+        <v>2116.0132699999999</v>
       </c>
       <c r="J117" s="13">
         <v>1.6</v>
@@ -9636,10 +9636,10 @@
         <v>7723192</v>
       </c>
       <c r="H118" s="13">
-        <v>24471.0317</v>
+        <v>26079.9228</v>
       </c>
       <c r="I118" s="13">
-        <v>1903.4158</v>
+        <v>2137.70109</v>
       </c>
       <c r="J118" s="13">
         <v>1.62</v>
@@ -9707,10 +9707,10 @@
         <v>8590483</v>
       </c>
       <c r="H119" s="13">
-        <v>23698.201399999998</v>
+        <v>25287.0877</v>
       </c>
       <c r="I119" s="13">
-        <v>1862.8413</v>
+        <v>2095.5623399999999</v>
       </c>
       <c r="J119" s="13">
         <v>1.38</v>
@@ -9778,10 +9778,10 @@
         <v>8775067</v>
       </c>
       <c r="H120" s="13">
-        <v>24805.0105</v>
+        <v>26380.126199999999</v>
       </c>
       <c r="I120" s="13">
-        <v>1964.15517</v>
+        <v>2205.1900500000002</v>
       </c>
       <c r="J120" s="13">
         <v>1.53</v>
@@ -9849,10 +9849,10 @@
         <v>10879503</v>
       </c>
       <c r="H121" s="13">
-        <v>23981.160099999997</v>
+        <v>25524.132699999998</v>
       </c>
       <c r="I121" s="13">
-        <v>1954.1982499999999</v>
+        <v>2191.6261100000002</v>
       </c>
       <c r="J121" s="13">
         <v>1.23</v>
@@ -9920,10 +9920,10 @@
         <v>14513100</v>
       </c>
       <c r="H122" s="13">
-        <v>24406.857999999997</v>
+        <v>25960.2395</v>
       </c>
       <c r="I122" s="13">
-        <v>1964.9691600000001</v>
+        <v>2203.0426299999999</v>
       </c>
       <c r="J122" s="13">
         <v>1.22</v>
@@ -9991,10 +9991,10 @@
         <v>4043567</v>
       </c>
       <c r="H123" s="13">
-        <v>26121.221700000002</v>
+        <v>27630.428800000002</v>
       </c>
       <c r="I123" s="13">
-        <v>2007.7917299999999</v>
+        <v>2232.3360299999999</v>
       </c>
       <c r="J123" s="13">
         <v>1.52</v>
@@ -10062,10 +10062,10 @@
         <v>3038334</v>
       </c>
       <c r="H124" s="13">
-        <v>23792.5913</v>
+        <v>25087.6322</v>
       </c>
       <c r="I124" s="13">
-        <v>1857.7174500000001</v>
+        <v>2052.51289</v>
       </c>
       <c r="J124" s="13">
         <v>1.57</v>
@@ -10133,10 +10133,10 @@
         <v>5079759</v>
       </c>
       <c r="H125" s="13">
-        <v>26435.4172</v>
+        <v>28109.915700000001</v>
       </c>
       <c r="I125" s="13">
-        <v>2099.0625599999998</v>
+        <v>2352.4343100000001</v>
       </c>
       <c r="J125" s="13">
         <v>1.41</v>
@@ -10204,10 +10204,10 @@
         <v>5165670</v>
       </c>
       <c r="H126" s="13">
-        <v>24999.838799999998</v>
+        <v>26676.349900000001</v>
       </c>
       <c r="I126" s="13">
-        <v>1961.681</v>
+        <v>2210.83257</v>
       </c>
       <c r="J126" s="13">
         <v>1.55</v>
@@ -10275,10 +10275,10 @@
         <v>4671973</v>
       </c>
       <c r="H127" s="13">
-        <v>26446.402299999998</v>
+        <v>28107.319</v>
       </c>
       <c r="I127" s="13">
-        <v>2075.39959</v>
+        <v>2316.0032799999999</v>
       </c>
       <c r="J127" s="13">
         <v>1.53</v>
@@ -10346,10 +10346,10 @@
         <v>5812323</v>
       </c>
       <c r="H128" s="13">
-        <v>25781.313600000001</v>
+        <v>27367.8482</v>
       </c>
       <c r="I128" s="13">
-        <v>2014.0184400000001</v>
+        <v>2236.8843200000001</v>
       </c>
       <c r="J128" s="13">
         <v>1.51</v>
@@ -10417,10 +10417,10 @@
         <v>4430292</v>
       </c>
       <c r="H129" s="13">
-        <v>26238.623900000002</v>
+        <v>27890.873299999999</v>
       </c>
       <c r="I129" s="13">
-        <v>2055.8975</v>
+        <v>2286.2310600000001</v>
       </c>
       <c r="J129" s="13">
         <v>1.82</v>
@@ -10488,10 +10488,10 @@
         <v>3530430</v>
       </c>
       <c r="H130" s="13">
-        <v>26080.968499999999</v>
+        <v>27760.374299999999</v>
       </c>
       <c r="I130" s="13">
-        <v>2070.0027399999999</v>
+        <v>2303.66383</v>
       </c>
       <c r="J130" s="13">
         <v>1.79</v>
@@ -10559,10 +10559,10 @@
         <v>3770910</v>
       </c>
       <c r="H131" s="13">
-        <v>25338.763700000003</v>
+        <v>26989.946499999998</v>
       </c>
       <c r="I131" s="13">
-        <v>2037.76522</v>
+        <v>2269.3846100000001</v>
       </c>
       <c r="J131" s="13">
         <v>1.61</v>
@@ -10630,10 +10630,10 @@
         <v>3355978</v>
       </c>
       <c r="H132" s="13">
-        <v>26202.569100000001</v>
+        <v>27888.186300000001</v>
       </c>
       <c r="I132" s="13">
-        <v>2122.5626499999998</v>
+        <v>2364.7662300000002</v>
       </c>
       <c r="J132" s="13">
         <v>1.63</v>
@@ -10701,10 +10701,10 @@
         <v>6265490</v>
       </c>
       <c r="H133" s="13">
-        <v>25422.3642</v>
+        <v>26970.785100000001</v>
       </c>
       <c r="I133" s="13">
-        <v>2091.4836399999999</v>
+        <v>2316.34177</v>
       </c>
       <c r="J133" s="13">
         <v>1.34</v>
@@ -10772,10 +10772,10 @@
         <v>13933274</v>
       </c>
       <c r="H134" s="13">
-        <v>26057.7804</v>
+        <v>27656.276900000001</v>
       </c>
       <c r="I134" s="13">
-        <v>2120.3526400000001</v>
+        <v>2355.10304</v>
       </c>
       <c r="J134" s="13">
         <v>1.31</v>
@@ -10843,10 +10843,10 @@
         <v>1228220</v>
       </c>
       <c r="H135" s="13">
-        <v>26545.509300000002</v>
+        <v>27831.395400000001</v>
       </c>
       <c r="I135" s="13">
-        <v>2085.4758499999998</v>
+        <v>2277.6327500000002</v>
       </c>
       <c r="J135" s="13">
         <v>1.65</v>
@@ -10914,10 +10914,10 @@
         <v>1764944</v>
       </c>
       <c r="H136" s="13">
-        <v>24527.703799999999</v>
+        <v>25907.8436</v>
       </c>
       <c r="I136" s="13">
-        <v>1966.3786600000001</v>
+        <v>2177.1484999999998</v>
       </c>
       <c r="J136" s="13">
         <v>1.56</v>
@@ -10985,10 +10985,10 @@
         <v>2970745</v>
       </c>
       <c r="H137" s="13">
-        <v>27006.760700000003</v>
+        <v>28628.219000000001</v>
       </c>
       <c r="I137" s="13">
-        <v>2137.27862</v>
+        <v>2378.5505899999998</v>
       </c>
       <c r="J137" s="13">
         <v>1.45</v>
@@ -11056,10 +11056,10 @@
         <v>2995839</v>
       </c>
       <c r="H138" s="13">
-        <v>26053.771000000001</v>
+        <v>27682.738300000001</v>
       </c>
       <c r="I138" s="13">
-        <v>2032.50665</v>
+        <v>2273.2982299999999</v>
       </c>
       <c r="J138" s="13">
         <v>1.65</v>
@@ -11127,10 +11127,10 @@
         <v>4005643</v>
       </c>
       <c r="H139" s="13">
-        <v>27105.5183</v>
+        <v>28758.996899999998</v>
       </c>
       <c r="I139" s="13">
-        <v>2114.4005900000002</v>
+        <v>2358.9450900000002</v>
       </c>
       <c r="J139" s="13">
         <v>1.49</v>
@@ -11198,10 +11198,10 @@
         <v>4809698</v>
       </c>
       <c r="H140" s="13">
-        <v>24833.904100000003</v>
+        <v>26336.700099999998</v>
       </c>
       <c r="I140" s="13">
-        <v>1929.6535200000001</v>
+        <v>2156.6928800000001</v>
       </c>
       <c r="J140" s="13">
         <v>1.62</v>
@@ -11269,10 +11269,10 @@
         <v>4796316</v>
       </c>
       <c r="H141" s="13">
-        <v>23842.107</v>
+        <v>25332.964499999998</v>
       </c>
       <c r="I141" s="13">
-        <v>1910.1820499999999</v>
+        <v>2134.75641</v>
       </c>
       <c r="J141" s="13">
         <v>1.8</v>
@@ -11340,10 +11340,10 @@
         <v>4578418</v>
       </c>
       <c r="H142" s="13">
-        <v>23652.388999999999</v>
+        <v>25194.794699999999</v>
       </c>
       <c r="I142" s="13">
-        <v>1891.2196100000001</v>
+        <v>2120.2363099999998</v>
       </c>
       <c r="J142" s="13">
         <v>1.85</v>
@@ -11411,10 +11411,10 @@
         <v>7265804</v>
       </c>
       <c r="H143" s="13">
-        <v>23846.900299999998</v>
+        <v>25376.6482</v>
       </c>
       <c r="I143" s="13">
-        <v>1914.7967900000001</v>
+        <v>2136.8496799999998</v>
       </c>
       <c r="J143" s="13">
         <v>1.69</v>
@@ -11482,10 +11482,10 @@
         <v>8101269</v>
       </c>
       <c r="H144" s="13">
-        <v>25299.361000000001</v>
+        <v>26767.995800000001</v>
       </c>
       <c r="I144" s="13">
-        <v>2045.51205</v>
+        <v>2261.3963399999998</v>
       </c>
       <c r="J144" s="13">
         <v>1.51</v>
@@ -11553,10 +11553,10 @@
         <v>8180016</v>
       </c>
       <c r="H145" s="13">
-        <v>25429.710200000001</v>
+        <v>26855.648000000001</v>
       </c>
       <c r="I145" s="13">
-        <v>2072.2866600000002</v>
+        <v>2283.84647</v>
       </c>
       <c r="J145" s="13">
         <v>1.42</v>
@@ -11624,10 +11624,10 @@
         <v>14504602</v>
       </c>
       <c r="H146" s="13">
-        <v>26159.512999999999</v>
+        <v>27671.633699999998</v>
       </c>
       <c r="I146" s="13">
-        <v>2139.68129</v>
+        <v>2366.17904</v>
       </c>
       <c r="J146" s="13">
         <v>1.48</v>
@@ -11695,10 +11695,10 @@
         <v>2099360</v>
       </c>
       <c r="H147" s="13">
-        <v>26611.995500000001</v>
+        <v>28118.166499999999</v>
       </c>
       <c r="I147" s="13">
-        <v>2131.14653</v>
+        <v>2360.3277400000002</v>
       </c>
       <c r="J147" s="13">
         <v>1.8756999999999999</v>
@@ -11766,10 +11766,10 @@
         <v>1663207</v>
       </c>
       <c r="H148" s="13">
-        <v>23974.7228</v>
+        <v>25097.8603</v>
       </c>
       <c r="I148" s="13">
-        <v>1861.539</v>
+        <v>2040.4080799999999</v>
       </c>
       <c r="J148" s="13">
         <v>1.4044000000000001</v>
@@ -11837,10 +11837,10 @@
         <v>2938148</v>
       </c>
       <c r="H149" s="13">
-        <v>26068.255800000003</v>
+        <v>27650.8328</v>
       </c>
       <c r="I149" s="13">
-        <v>2086.59654</v>
+        <v>2331.0634300000002</v>
       </c>
       <c r="J149" s="13">
         <v>1.6854</v>
@@ -11908,10 +11908,10 @@
         <v>4389559</v>
       </c>
       <c r="H150" s="13">
-        <v>23944.9018</v>
+        <v>25495.827600000001</v>
       </c>
       <c r="I150" s="13">
-        <v>1897.29936</v>
+        <v>2131.7788399999999</v>
       </c>
       <c r="J150" s="13">
         <v>1.7502</v>
@@ -11979,10 +11979,10 @@
         <v>4670740</v>
       </c>
       <c r="H151" s="13">
-        <v>24688.108700000001</v>
+        <v>26220.4673</v>
       </c>
       <c r="I151" s="13">
-        <v>1931.51277</v>
+        <v>2154.2358899999999</v>
       </c>
       <c r="J151" s="13">
         <v>1.6232</v>
@@ -12050,10 +12050,10 @@
         <v>5832110</v>
       </c>
       <c r="H152" s="13">
-        <v>23752.198999999997</v>
+        <v>25265.2399</v>
       </c>
       <c r="I152" s="13">
-        <v>1854.6876400000001</v>
+        <v>2076.7275</v>
       </c>
       <c r="J152" s="13">
         <v>1.8043</v>
@@ -12121,10 +12121,10 @@
         <v>4581394</v>
       </c>
       <c r="H153" s="13">
-        <v>24459.646099999998</v>
+        <v>25971.679499999998</v>
       </c>
       <c r="I153" s="13">
-        <v>1912.85475</v>
+        <v>2131.3702899999998</v>
       </c>
       <c r="J153" s="13">
         <v>1.9931000000000001</v>
@@ -12192,10 +12192,10 @@
         <v>5153941</v>
       </c>
       <c r="H154" s="13">
-        <v>25099.339399999997</v>
+        <v>26593.2202</v>
       </c>
       <c r="I154" s="13">
-        <v>1975.8431800000001</v>
+        <v>2191.80431</v>
       </c>
       <c r="J154" s="13">
         <v>2.0287000000000002</v>
@@ -12263,10 +12263,10 @@
         <v>5642725</v>
       </c>
       <c r="H155" s="13">
-        <v>25512.391499999998</v>
+        <v>26987.359899999999</v>
       </c>
       <c r="I155" s="13">
-        <v>2016.6962799999999</v>
+        <v>2226.80683</v>
       </c>
       <c r="J155" s="13">
         <v>1.9197</v>
@@ -12334,10 +12334,10 @@
         <v>5955716</v>
       </c>
       <c r="H156" s="13">
-        <v>26895.873</v>
+        <v>28404.4126</v>
       </c>
       <c r="I156" s="13">
-        <v>2123.4772600000001</v>
+        <v>2341.6084300000002</v>
       </c>
       <c r="J156" s="13">
         <v>1.6407</v>
@@ -12405,10 +12405,10 @@
         <v>8211373</v>
       </c>
       <c r="H157" s="13">
-        <v>25915.766299999999</v>
+        <v>27306.035199999998</v>
       </c>
       <c r="I157" s="13">
-        <v>2084.6805899999999</v>
+        <v>2290.9080800000002</v>
       </c>
       <c r="J157" s="13">
         <v>1.5557000000000001</v>
@@ -12476,10 +12476,10 @@
         <v>15436205</v>
       </c>
       <c r="H158" s="13">
-        <v>26766.527899999997</v>
+        <v>28280.659100000001</v>
       </c>
       <c r="I158" s="13">
-        <v>2142.0193300000001</v>
+        <v>2362.83158</v>
       </c>
       <c r="J158" s="13">
         <v>1.7375</v>
@@ -12547,10 +12547,10 @@
         <v>2002050.0000000002</v>
       </c>
       <c r="H159" s="13">
-        <v>26343.595299999997</v>
+        <v>27624.970399999998</v>
       </c>
       <c r="I159" s="13">
-        <v>2064.1268</v>
+        <v>2274.01136</v>
       </c>
       <c r="J159" s="13">
         <v>1.905</v>
@@ -12618,10 +12618,10 @@
         <v>2002050.0000000002</v>
       </c>
       <c r="H160" s="13">
-        <v>22282.324999999997</v>
+        <v>23354.256000000001</v>
       </c>
       <c r="I160" s="13">
-        <v>1744.7179000000001</v>
+        <v>1920.1761899999999</v>
       </c>
       <c r="J160" s="13">
         <v>1.5974999999999999</v>
@@ -12689,10 +12689,10 @@
         <v>2498999.9999999991</v>
       </c>
       <c r="H161" s="13">
-        <v>24697.237099999998</v>
+        <v>26181.664199999999</v>
       </c>
       <c r="I161" s="13">
-        <v>1907.9454000000001</v>
+        <v>2140.6057999999998</v>
       </c>
       <c r="J161" s="13">
         <v>1.8053999999999999</v>
@@ -12760,10 +12760,10 @@
         <v>4286000.0000000009</v>
       </c>
       <c r="H162" s="13">
-        <v>23071.845999999998</v>
+        <v>24529.875800000002</v>
       </c>
       <c r="I162" s="13">
-        <v>1757.7614699999999</v>
+        <v>1976.23002</v>
       </c>
       <c r="J162" s="13">
         <v>1.9843</v>
@@ -12831,10 +12831,10 @@
         <v>3797099.9999999981</v>
       </c>
       <c r="H163" s="13">
-        <v>24310.8815</v>
+        <v>25788.048299999999</v>
       </c>
       <c r="I163" s="13">
-        <v>1856.2358400000001</v>
+        <v>2078.3095600000001</v>
       </c>
       <c r="J163" s="13">
         <v>1.9036999999999999</v>
@@ -12902,10 +12902,10 @@
         <v>5867300</v>
       </c>
       <c r="H164" s="13">
-        <v>23332.4794</v>
+        <v>24748.860199999999</v>
       </c>
       <c r="I164" s="13">
-        <v>1788.8880300000001</v>
+        <v>2001.9111399999999</v>
       </c>
       <c r="J164" s="13">
         <v>1.9456</v>
@@ -12973,10 +12973,10 @@
         <v>6202200.0000000028</v>
       </c>
       <c r="H165" s="13">
-        <v>23860.446799999998</v>
+        <v>25245.785</v>
       </c>
       <c r="I165" s="13">
-        <v>1821.1431500000001</v>
+        <v>2024.67047</v>
       </c>
       <c r="J165" s="13">
         <v>2.2385999999999999</v>
@@ -13044,10 +13044,10 @@
         <v>6896599.9999999981</v>
       </c>
       <c r="H166" s="13">
-        <v>24700.185999999998</v>
+        <v>26105.295999999998</v>
       </c>
       <c r="I166" s="13">
-        <v>1893.9538</v>
+        <v>2098.9621900000002</v>
       </c>
       <c r="J166" s="13">
         <v>2.3515000000000001</v>
@@ -13115,10 +13115,10 @@
         <v>8964800</v>
       </c>
       <c r="H167" s="13">
-        <v>24020.9198</v>
+        <v>25387.2696</v>
       </c>
       <c r="I167" s="13">
-        <v>1874.5091</v>
+        <v>2071.39417</v>
       </c>
       <c r="J167" s="13">
         <v>2.0985999999999998</v>
@@ -13186,10 +13186,10 @@
         <v>8672600.0000000019</v>
       </c>
       <c r="H168" s="13">
-        <v>25026.665300000001</v>
+        <v>26437.1067</v>
       </c>
       <c r="I168" s="13">
-        <v>1952.30105</v>
+        <v>2151.0971300000001</v>
       </c>
       <c r="J168" s="13">
         <v>1.7919</v>
@@ -13257,10 +13257,10 @@
         <v>8015799.9999999991</v>
       </c>
       <c r="H169" s="13">
-        <v>24129.991999999998</v>
+        <v>25384.7009</v>
       </c>
       <c r="I169" s="13">
-        <v>1948.1876500000001</v>
+        <v>2132.4646499999999</v>
       </c>
       <c r="J169" s="13">
         <v>1.7056</v>
@@ -13328,10 +13328,10 @@
         <v>18807799.999999996</v>
       </c>
       <c r="H170" s="13">
-        <v>24205.981599999999</v>
+        <v>25471.478899999998</v>
       </c>
       <c r="I170" s="13">
-        <v>1920.8371400000001</v>
+        <v>2118.0555599999998</v>
       </c>
       <c r="J170" s="13">
         <v>2.2427000000000001</v>
@@ -13399,10 +13399,10 @@
         <v>3012001</v>
       </c>
       <c r="H171" s="15">
-        <v>25463.65</v>
+        <v>25417.234199999999</v>
       </c>
       <c r="I171" s="15">
-        <v>2138.64</v>
+        <v>2126.0819099999999</v>
       </c>
       <c r="J171" s="14">
         <v>1.79</v>
@@ -13470,10 +13470,10 @@
         <v>1647600</v>
       </c>
       <c r="H172" s="15">
-        <v>21228.29</v>
+        <v>21212.990900000001</v>
       </c>
       <c r="I172" s="15">
-        <v>1646.12</v>
+        <v>1642.10285</v>
       </c>
       <c r="J172" s="14">
         <v>1.93</v>
@@ -13541,10 +13541,10 @@
         <v>4265900</v>
       </c>
       <c r="H173" s="15">
-        <v>23674.42</v>
+        <v>23633.821400000001</v>
       </c>
       <c r="I173" s="15">
-        <v>1910.72</v>
+        <v>1900.0233000000001</v>
       </c>
       <c r="J173" s="14">
         <v>2.16</v>
@@ -13612,10 +13612,10 @@
         <v>5063900</v>
       </c>
       <c r="H174" s="15">
-        <v>22312.04</v>
+        <v>22274.2163</v>
       </c>
       <c r="I174" s="15">
-        <v>1784.57</v>
+        <v>1774.61734</v>
       </c>
       <c r="J174" s="14">
         <v>2.11</v>
@@ -13683,10 +13683,10 @@
         <v>5464100</v>
       </c>
       <c r="H175" s="15">
-        <v>22981.79</v>
+        <v>22945.529399999999</v>
       </c>
       <c r="I175" s="15">
-        <v>1789.88</v>
+        <v>1780.42245</v>
       </c>
       <c r="J175" s="14">
         <v>2.12</v>
@@ -13754,10 +13754,10 @@
         <v>6396500</v>
       </c>
       <c r="H176" s="15">
-        <v>22035.18</v>
+        <v>22003.011699999999</v>
       </c>
       <c r="I176" s="15">
-        <v>1696.61</v>
+        <v>1688.3384100000001</v>
       </c>
       <c r="J176" s="14">
         <v>2.06</v>
@@ -13825,10 +13825,10 @@
         <v>7885800</v>
       </c>
       <c r="H177" s="15">
-        <v>22556.400000000001</v>
+        <v>22523.2022</v>
       </c>
       <c r="I177" s="15">
-        <v>1725.4</v>
+        <v>1716.80313</v>
       </c>
       <c r="J177" s="14">
         <v>2.48</v>
@@ -13896,10 +13896,10 @@
         <v>6942800</v>
       </c>
       <c r="H178" s="15">
-        <v>22456.95</v>
+        <v>22421.854299999999</v>
       </c>
       <c r="I178" s="15">
-        <v>1746.55</v>
+        <v>1737.3271</v>
       </c>
       <c r="J178" s="14">
         <v>2.5499999999999998</v>
@@ -13967,10 +13967,10 @@
         <v>7377100</v>
       </c>
       <c r="H179" s="15">
-        <v>21675.18</v>
+        <v>21639.977599999998</v>
       </c>
       <c r="I179" s="15">
-        <v>1700.29</v>
+        <v>1690.8538599999999</v>
       </c>
       <c r="J179" s="14">
         <v>2.1800000000000002</v>
@@ -14038,10 +14038,10 @@
         <v>7488300</v>
       </c>
       <c r="H180" s="15">
-        <v>22548.87</v>
+        <v>22512.160599999999</v>
       </c>
       <c r="I180" s="15">
-        <v>1799.57</v>
+        <v>1789.5419999999999</v>
       </c>
       <c r="J180" s="14">
         <v>2.27</v>
@@ -14109,10 +14109,10 @@
         <v>9061800</v>
       </c>
       <c r="H181" s="15">
-        <v>21571.5</v>
+        <v>21535.8842</v>
       </c>
       <c r="I181" s="15">
-        <v>1761.53</v>
+        <v>1752.03548</v>
       </c>
       <c r="J181" s="14">
         <v>1.88</v>
@@ -14180,10 +14180,10 @@
         <v>18947400</v>
       </c>
       <c r="H182" s="15">
-        <v>22739.77</v>
+        <v>22703.8969</v>
       </c>
       <c r="I182" s="15">
-        <v>1873.93</v>
+        <v>1864.3967399999999</v>
       </c>
       <c r="J182" s="14">
         <v>1.82</v>

--- a/RailIndexPrj/rawdata_monthly.xlsx
+++ b/RailIndexPrj/rawdata_monthly.xlsx
@@ -24,32 +24,6 @@
     <author>WenJing</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WenJing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-28个品类的和</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -184,9 +158,6 @@
     <t>固定资产投资(万元)</t>
   </si>
   <si>
-    <t>货运量(万吨)</t>
-  </si>
-  <si>
     <t>货运周转量(亿吨)</t>
   </si>
   <si>
@@ -231,12 +202,16 @@
   <si>
     <t>煤(万吨)</t>
   </si>
+  <si>
+    <t>货运量(万吨)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +418,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -757,7 +738,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +865,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -931,7 +915,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -957,6 +941,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 11" xfId="42"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1278,10 +1263,10 @@
   <dimension ref="A1:W182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3:H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1329,52 +1314,52 @@
         <v>29</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
@@ -1471,10 +1456,10 @@
         <v>359300</v>
       </c>
       <c r="H3" s="13">
-        <v>10722.5873741714</v>
+        <v>13700.000000000002</v>
       </c>
       <c r="I3" s="13">
-        <v>898.59309339520985</v>
+        <v>1089</v>
       </c>
       <c r="J3" s="13">
         <v>0.93</v>
@@ -1542,10 +1527,10 @@
         <v>179650</v>
       </c>
       <c r="H4" s="13">
-        <v>10300.12951344079</v>
+        <v>13100</v>
       </c>
       <c r="I4" s="13">
-        <v>860.17078419775225</v>
+        <v>1023</v>
       </c>
       <c r="J4" s="13">
         <v>0.85</v>
@@ -1613,10 +1598,10 @@
         <v>449125</v>
       </c>
       <c r="H5" s="13">
-        <v>11813.291246871495</v>
+        <v>15200</v>
       </c>
       <c r="I5" s="13">
-        <v>1020.4242454476877</v>
+        <v>1288</v>
       </c>
       <c r="J5" s="13">
         <v>0.81</v>
@@ -1684,10 +1669,10 @@
         <v>538950.00000000023</v>
       </c>
       <c r="H6" s="13">
-        <v>11581.745938925347</v>
+        <v>14699.999999999998</v>
       </c>
       <c r="I6" s="13">
-        <v>984.05144136582385</v>
+        <v>1221.3999999999996</v>
       </c>
       <c r="J6" s="13">
         <v>0.81</v>
@@ -1755,10 +1740,10 @@
         <v>718599.99999999977</v>
       </c>
       <c r="H7" s="13">
-        <v>12108.213536063908</v>
+        <v>15499.999999999998</v>
       </c>
       <c r="I7" s="13">
-        <v>1016.0254443082576</v>
+        <v>1247.1200000000008</v>
       </c>
       <c r="J7" s="13">
         <v>0.87</v>
@@ -1826,10 +1811,10 @@
         <v>718600</v>
       </c>
       <c r="H8" s="13">
-        <v>11678.982215194403</v>
+        <v>14900.000000000011</v>
       </c>
       <c r="I8" s="13">
-        <v>971.4134787511955</v>
+        <v>1168.1899999999996</v>
       </c>
       <c r="J8" s="13">
         <v>0.75</v>
@@ -1897,10 +1882,10 @@
         <v>628775</v>
       </c>
       <c r="H9" s="13">
-        <v>11928.390953962904</v>
+        <v>15199.999999999996</v>
       </c>
       <c r="I9" s="13">
-        <v>972.36732589815881</v>
+        <v>1176.0899999999992</v>
       </c>
       <c r="J9" s="13">
         <v>0.91</v>
@@ -1968,10 +1953,10 @@
         <v>628774.99999999907</v>
       </c>
       <c r="H10" s="13">
-        <v>12077.501037791984</v>
+        <v>15399.999999999991</v>
       </c>
       <c r="I10" s="13">
-        <v>998.70588719203647</v>
+        <v>1197.1500000000015</v>
       </c>
       <c r="J10" s="13">
         <v>0.95</v>
@@ -2039,10 +2024,10 @@
         <v>808425.00000000093</v>
       </c>
       <c r="H11" s="13">
-        <v>11758.47921472198</v>
+        <v>15099.999999999998</v>
       </c>
       <c r="I11" s="13">
-        <v>986.15968328706265</v>
+        <v>1193.0599999999995</v>
       </c>
       <c r="J11" s="13">
         <v>0.81</v>
@@ -2110,10 +2095,10 @@
         <v>898250</v>
       </c>
       <c r="H12" s="13">
-        <v>12256.083570998857</v>
+        <v>15800</v>
       </c>
       <c r="I12" s="13">
-        <v>1020.0483866670425</v>
+        <v>1229.5599999999995</v>
       </c>
       <c r="J12" s="13">
         <v>0.85</v>
@@ -2181,10 +2166,10 @@
         <v>988075</v>
       </c>
       <c r="H13" s="13">
-        <v>11583.317533403697</v>
+        <v>14900.00000000002</v>
       </c>
       <c r="I13" s="13">
-        <v>994.87676696265351</v>
+        <v>1206.4300000000003</v>
       </c>
       <c r="J13" s="13">
         <v>0.72</v>
@@ -2252,10 +2237,10 @@
         <v>2065975</v>
       </c>
       <c r="H14" s="13">
-        <v>11750.021973999797</v>
+        <v>15099.99999999998</v>
       </c>
       <c r="I14" s="13">
-        <v>1014.870754503776</v>
+        <v>1235.4899999999998</v>
       </c>
       <c r="J14" s="13">
         <v>0.72</v>
@@ -2323,10 +2308,10 @@
         <v>385092</v>
       </c>
       <c r="H15" s="13">
-        <v>12600.996841179493</v>
+        <v>16100.000000000002</v>
       </c>
       <c r="I15" s="13">
-        <v>1044.4721319455673</v>
+        <v>1265.79</v>
       </c>
       <c r="J15" s="13">
         <v>0.78</v>
@@ -2394,10 +2379,10 @@
         <v>192546</v>
       </c>
       <c r="H16" s="13">
-        <v>11007.771999097027</v>
+        <v>14100</v>
       </c>
       <c r="I16" s="13">
-        <v>900.39307421105684</v>
+        <v>1095.0700000000002</v>
       </c>
       <c r="J16" s="13">
         <v>0.93</v>
@@ -2465,10 +2450,10 @@
         <v>481365</v>
       </c>
       <c r="H17" s="13">
-        <v>12279.605375037474</v>
+        <v>15699.999999999998</v>
       </c>
       <c r="I17" s="13">
-        <v>1044.633218795627</v>
+        <v>1287.79</v>
       </c>
       <c r="J17" s="13">
         <v>0.87</v>
@@ -2536,10 +2521,10 @@
         <v>577638.00000000023</v>
       </c>
       <c r="H18" s="13">
-        <v>11973.021139564718</v>
+        <v>15300.000000000002</v>
       </c>
       <c r="I18" s="13">
-        <v>1032.6509009058636</v>
+        <v>1287.98</v>
       </c>
       <c r="J18" s="13">
         <v>0.8</v>
@@ -2607,10 +2592,10 @@
         <v>770183.99999999977</v>
       </c>
       <c r="H19" s="13">
-        <v>12498.801069485324</v>
+        <v>16100.000000000004</v>
       </c>
       <c r="I19" s="13">
-        <v>1067.9374765046102</v>
+        <v>1289.7699999999995</v>
       </c>
       <c r="J19" s="13">
         <v>0.85</v>
@@ -2678,10 +2663,10 @@
         <v>770184.00000000047</v>
       </c>
       <c r="H20" s="13">
-        <v>12070.894370066699</v>
+        <v>15399.999999999991</v>
       </c>
       <c r="I20" s="13">
-        <v>1006.1436714503845</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="J20" s="13">
         <v>0.73</v>
@@ -2749,10 +2734,10 @@
         <v>673911</v>
       </c>
       <c r="H21" s="13">
-        <v>12399.248491619337</v>
+        <v>15800</v>
       </c>
       <c r="I21" s="13">
-        <v>1035.1660490290817</v>
+        <v>1254.2799999999997</v>
       </c>
       <c r="J21" s="13">
         <v>0.91</v>
@@ -2820,10 +2805,10 @@
         <v>673910.99999999953</v>
       </c>
       <c r="H22" s="13">
-        <v>12469.627694863155</v>
+        <v>15800</v>
       </c>
       <c r="I22" s="13">
-        <v>1042.5283021932298</v>
+        <v>1261.8500000000004</v>
       </c>
       <c r="J22" s="13">
         <v>0.96</v>
@@ -2891,10 +2876,10 @@
         <v>866457.00000000093</v>
       </c>
       <c r="H23" s="13">
-        <v>12069.962107827198</v>
+        <v>15500.000000000007</v>
       </c>
       <c r="I23" s="13">
-        <v>1028.8376638832624</v>
+        <v>1259.6000000000004</v>
       </c>
       <c r="J23" s="13">
         <v>0.83</v>
@@ -2962,10 +2947,10 @@
         <v>962730</v>
       </c>
       <c r="H24" s="13">
-        <v>12568.340477266343</v>
+        <v>16099.999999999995</v>
       </c>
       <c r="I24" s="13">
-        <v>1079.3101067758771</v>
+        <v>1306.3199999999997</v>
       </c>
       <c r="J24" s="13">
         <v>0.86</v>
@@ -3033,10 +3018,10 @@
         <v>1059002.9999999991</v>
       </c>
       <c r="H25" s="13">
-        <v>12049.759850185053</v>
+        <v>15500.000000000007</v>
       </c>
       <c r="I25" s="13">
-        <v>1053.4422481087372</v>
+        <v>1270.3199999999997</v>
       </c>
       <c r="J25" s="13">
         <v>0.73</v>
@@ -3104,10 +3089,10 @@
         <v>2214279</v>
       </c>
       <c r="H26" s="13">
-        <v>12061.280834238203</v>
+        <v>15500.000000000007</v>
       </c>
       <c r="I26" s="13">
-        <v>1060.1493390216492</v>
+        <v>1295.6400000000012</v>
       </c>
       <c r="J26" s="13">
         <v>0.74</v>
@@ -3175,10 +3160,10 @@
         <v>343968</v>
       </c>
       <c r="H27" s="13">
-        <v>12209.661535552801</v>
+        <v>15600</v>
       </c>
       <c r="I27" s="13">
-        <v>1053.2022650292415</v>
+        <v>1276.3699999999999</v>
       </c>
       <c r="J27" s="13">
         <v>0.9</v>
@@ -3246,10 +3231,10 @@
         <v>171984</v>
       </c>
       <c r="H28" s="13">
-        <v>11322.279770499799</v>
+        <v>14400</v>
       </c>
       <c r="I28" s="13">
-        <v>956.43150058805998</v>
+        <v>1118.44</v>
       </c>
       <c r="J28" s="13">
         <v>0.96</v>
@@ -3317,10 +3302,10 @@
         <v>429960</v>
       </c>
       <c r="H29" s="13">
-        <v>13056.795588647441</v>
+        <v>16799.999999999996</v>
       </c>
       <c r="I29" s="13">
-        <v>1144.5496568108924</v>
+        <v>1425.2400000000002</v>
       </c>
       <c r="J29" s="13">
         <v>0.83</v>
@@ -3388,10 +3373,10 @@
         <v>515952</v>
       </c>
       <c r="H30" s="13">
-        <v>12599.061460587711</v>
+        <v>16100.000000000004</v>
       </c>
       <c r="I30" s="13">
-        <v>1086.3034654123337</v>
+        <v>1335.4399999999996</v>
       </c>
       <c r="J30" s="13">
         <v>0.71</v>
@@ -3459,10 +3444,10 @@
         <v>687936</v>
       </c>
       <c r="H31" s="13">
-        <v>13514.328656381005</v>
+        <v>17299.999999999996</v>
       </c>
       <c r="I31" s="13">
-        <v>1156.5029473629893</v>
+        <v>1404.13</v>
       </c>
       <c r="J31" s="13">
         <v>0.33</v>
@@ -3530,10 +3515,10 @@
         <v>687936</v>
       </c>
       <c r="H32" s="13">
-        <v>13246.630834683583</v>
+        <v>17000.000000000011</v>
       </c>
       <c r="I32" s="13">
-        <v>1125.4002352089976</v>
+        <v>1361.08</v>
       </c>
       <c r="J32" s="13">
         <v>0.53</v>
@@ -3601,10 +3586,10 @@
         <v>601944</v>
       </c>
       <c r="H33" s="13">
-        <v>13419.439823208268</v>
+        <v>17099.999999999989</v>
       </c>
       <c r="I33" s="13">
-        <v>1125.740813744138</v>
+        <v>1371.37</v>
       </c>
       <c r="J33" s="13">
         <v>0.83</v>
@@ -3672,10 +3657,10 @@
         <v>601943.99999999953</v>
       </c>
       <c r="H34" s="13">
-        <v>13489.15700324819</v>
+        <v>17200.000000000007</v>
       </c>
       <c r="I34" s="13">
-        <v>1149.7508953929016</v>
+        <v>1394.5200000000004</v>
       </c>
       <c r="J34" s="13">
         <v>0.95</v>
@@ -3743,10 +3728,10 @@
         <v>773928.00000000047</v>
       </c>
       <c r="H35" s="13">
-        <v>12848.669340590242</v>
+        <v>16500.000000000004</v>
       </c>
       <c r="I35" s="13">
-        <v>1122.0662622730192</v>
+        <v>1362.2199999999993</v>
       </c>
       <c r="J35" s="13">
         <v>0.84</v>
@@ -3814,10 +3799,10 @@
         <v>859920</v>
       </c>
       <c r="H36" s="13">
-        <v>13348.982742935061</v>
+        <v>17100.000000000007</v>
       </c>
       <c r="I36" s="13">
-        <v>1179.0969969787832</v>
+        <v>1432.3199999999997</v>
       </c>
       <c r="J36" s="13">
         <v>0.88</v>
@@ -3885,10 +3870,10 @@
         <v>945911.99999999907</v>
       </c>
       <c r="H37" s="13">
-        <v>12827.163711487312</v>
+        <v>16499.999999999985</v>
       </c>
       <c r="I37" s="13">
-        <v>1139.9417592561176</v>
+        <v>1380.9500000000007</v>
       </c>
       <c r="J37" s="13">
         <v>0.78</v>
@@ -3956,10 +3941,10 @@
         <v>1977816.0000000009</v>
       </c>
       <c r="H38" s="13">
-        <v>13539.760420370629</v>
+        <v>17500</v>
       </c>
       <c r="I38" s="13">
-        <v>1193.5287498346977</v>
+        <v>1458.6100000000006</v>
       </c>
       <c r="J38" s="13">
         <v>0.76</v>
@@ -4027,10 +4012,10 @@
         <v>360552</v>
       </c>
       <c r="H39" s="13">
-        <v>13775.002758059569</v>
+        <v>17600</v>
       </c>
       <c r="I39" s="13">
-        <v>1155.7441968164067</v>
+        <v>1400.64</v>
       </c>
       <c r="J39" s="13">
         <v>1.05</v>
@@ -4098,10 +4083,10 @@
         <v>180275.99999999988</v>
       </c>
       <c r="H40" s="13">
-        <v>12973.445570364353</v>
+        <v>16400</v>
       </c>
       <c r="I40" s="13">
-        <v>1137.1691917072374</v>
+        <v>1352.6499999999999</v>
       </c>
       <c r="J40" s="13">
         <v>0.95</v>
@@ -4169,10 +4154,10 @@
         <v>450690.00000000012</v>
       </c>
       <c r="H41" s="13">
-        <v>14067.142866340399</v>
+        <v>18300.000000000004</v>
       </c>
       <c r="I41" s="13">
-        <v>1250.6682580014865</v>
+        <v>1575.3999999999996</v>
       </c>
       <c r="J41" s="13">
         <v>0.83</v>
@@ -4240,10 +4225,10 @@
         <v>540828</v>
       </c>
       <c r="H42" s="13">
-        <v>13616.376982250071</v>
+        <v>17299.999999999996</v>
       </c>
       <c r="I42" s="13">
-        <v>1206.5918141212803</v>
+        <v>1508.1200000000008</v>
       </c>
       <c r="J42" s="13">
         <v>0.83</v>
@@ -4311,10 +4296,10 @@
         <v>721103.99999999953</v>
       </c>
       <c r="H43" s="13">
-        <v>14295.503723223839</v>
+        <v>18400.000000000007</v>
       </c>
       <c r="I43" s="13">
-        <v>1253.7805829167737</v>
+        <v>1535.5199999999995</v>
       </c>
       <c r="J43" s="13">
         <v>0.91</v>
@@ -4382,10 +4367,10 @@
         <v>721104.00000000047</v>
       </c>
       <c r="H44" s="13">
-        <v>14108.837575402635</v>
+        <v>17899.999999999993</v>
       </c>
       <c r="I44" s="13">
-        <v>1229.0954932300374</v>
+        <v>1479.7700000000004</v>
       </c>
       <c r="J44" s="13">
         <v>0.82</v>
@@ -4453,10 +4438,10 @@
         <v>630965.99999999953</v>
       </c>
       <c r="H45" s="13">
-        <v>14596.583667349345</v>
+        <v>18599.999999999993</v>
       </c>
       <c r="I45" s="13">
-        <v>1236.1944294476612</v>
+        <v>1512.9599999999991</v>
       </c>
       <c r="J45" s="13">
         <v>1</v>
@@ -4524,10 +4509,10 @@
         <v>630965.99999999953</v>
       </c>
       <c r="H46" s="13">
-        <v>14900.812968704395</v>
+        <v>19000.000000000004</v>
       </c>
       <c r="I46" s="13">
-        <v>1262.4099173417776</v>
+        <v>1534.1900000000005</v>
       </c>
       <c r="J46" s="13">
         <v>1.03</v>
@@ -4595,10 +4580,10 @@
         <v>811242.00000000093</v>
       </c>
       <c r="H47" s="13">
-        <v>14328.21308284003</v>
+        <v>18400.000000000015</v>
       </c>
       <c r="I47" s="13">
-        <v>1274.0081601820141</v>
+        <v>1574.4500000000007</v>
       </c>
       <c r="J47" s="13">
         <v>0.85</v>
@@ -4666,10 +4651,10 @@
         <v>901380</v>
       </c>
       <c r="H48" s="13">
-        <v>14910.267274272494</v>
+        <v>19100</v>
       </c>
       <c r="I48" s="13">
-        <v>1342.2455270230043</v>
+        <v>1631.33</v>
       </c>
       <c r="J48" s="13">
         <v>0.9</v>
@@ -4737,10 +4722,10 @@
         <v>991518</v>
       </c>
       <c r="H49" s="13">
-        <v>14304.231047961612</v>
+        <v>18400</v>
       </c>
       <c r="I49" s="13">
-        <v>1291.9571618579614</v>
+        <v>1571.6299999999992</v>
       </c>
       <c r="J49" s="13">
         <v>0.77</v>
@@ -4808,10 +4793,10 @@
         <v>2073173.9999999981</v>
       </c>
       <c r="H50" s="13">
-        <v>14317.907570966641</v>
+        <v>18400</v>
       </c>
       <c r="I50" s="13">
-        <v>1296.703332747848</v>
+        <v>1596.7099999999991</v>
       </c>
       <c r="J50" s="13">
         <v>0.78</v>
@@ -4879,10 +4864,10 @@
         <v>545724</v>
       </c>
       <c r="H51" s="13">
-        <v>17297.020508699799</v>
+        <v>22100</v>
       </c>
       <c r="I51" s="13">
-        <v>1385.8467404566161</v>
+        <v>1679.5</v>
       </c>
       <c r="J51" s="13">
         <v>0.93</v>
@@ -4950,10 +4935,10 @@
         <v>272862</v>
       </c>
       <c r="H52" s="13">
-        <v>15568.134684437222</v>
+        <v>19800.000000000004</v>
       </c>
       <c r="I52" s="13">
-        <v>1209.8285391049028</v>
+        <v>1463.67</v>
       </c>
       <c r="J52" s="13">
         <v>1.06</v>
@@ -5021,10 +5006,10 @@
         <v>682154.99999999977</v>
       </c>
       <c r="H53" s="13">
-        <v>17331.34176350226</v>
+        <v>22299.999999999996</v>
       </c>
       <c r="I53" s="13">
-        <v>1415.1036226114977</v>
+        <v>1766.37</v>
       </c>
       <c r="J53" s="13">
         <v>0.93</v>
@@ -5092,10 +5077,10 @@
         <v>818586.00000000023</v>
       </c>
       <c r="H54" s="13">
-        <v>16981.343707748652</v>
+        <v>22200.000000000007</v>
       </c>
       <c r="I54" s="13">
-        <v>1382.4398669530594</v>
+        <v>1771.1800000000003</v>
       </c>
       <c r="J54" s="13">
         <v>0.91</v>
@@ -5163,10 +5148,10 @@
         <v>1091448</v>
       </c>
       <c r="H55" s="13">
-        <v>17576.439003963736</v>
+        <v>22500</v>
       </c>
       <c r="I55" s="13">
-        <v>1433.2495349331459</v>
+        <v>1758.0600000000004</v>
       </c>
       <c r="J55" s="13">
         <v>0.97</v>
@@ -5234,10 +5219,10 @@
         <v>1091448</v>
       </c>
       <c r="H56" s="13">
-        <v>17165.75238340654</v>
+        <v>21899.999999999996</v>
       </c>
       <c r="I56" s="13">
-        <v>1378.9628377180525</v>
+        <v>1678.869999999999</v>
       </c>
       <c r="J56" s="13">
         <v>0.86</v>
@@ -5305,10 +5290,10 @@
         <v>955017</v>
       </c>
       <c r="H57" s="13">
-        <v>17657.157662116144</v>
+        <v>22500</v>
       </c>
       <c r="I57" s="13">
-        <v>1398.5521038837053</v>
+        <v>1717.0500000000011</v>
       </c>
       <c r="J57" s="13">
         <v>1.08</v>
@@ -5376,10 +5361,10 @@
         <v>955017</v>
       </c>
       <c r="H58" s="13">
-        <v>17645.699568202574</v>
+        <v>22499.999999999982</v>
       </c>
       <c r="I58" s="13">
-        <v>1396.9139497897377</v>
+        <v>1704.7699999999986</v>
       </c>
       <c r="J58" s="13">
         <v>1.1200000000000001</v>
@@ -5447,10 +5432,10 @@
         <v>1227879</v>
       </c>
       <c r="H59" s="13">
-        <v>17209.429844063292</v>
+        <v>22200.000000000025</v>
       </c>
       <c r="I59" s="13">
-        <v>1388.5426009237767</v>
+        <v>1704.9099999999999</v>
       </c>
       <c r="J59" s="13">
         <v>0.94</v>
@@ -5518,10 +5503,10 @@
         <v>1364310</v>
       </c>
       <c r="H60" s="13">
-        <v>18345.093243214851</v>
+        <v>23400</v>
       </c>
       <c r="I60" s="13">
-        <v>1480.5117855873443</v>
+        <v>1823.8700000000008</v>
       </c>
       <c r="J60" s="13">
         <v>1</v>
@@ -5589,10 +5574,10 @@
         <v>1500741</v>
       </c>
       <c r="H61" s="13">
-        <v>17958.02919608224</v>
+        <v>23200.000000000004</v>
       </c>
       <c r="I61" s="13">
-        <v>1473.1973849469437</v>
+        <v>1817.7099999999991</v>
       </c>
       <c r="J61" s="13">
         <v>0.86</v>
@@ -5660,10 +5645,10 @@
         <v>3137913</v>
       </c>
       <c r="H62" s="13">
-        <v>18208.643323946708</v>
+        <v>24899.999999999985</v>
       </c>
       <c r="I62" s="13">
-        <v>1512.1409667142643</v>
+        <v>1847.9900000000016</v>
       </c>
       <c r="J62" s="13">
         <v>0.85</v>
@@ -5731,10 +5716,10 @@
         <v>657117</v>
       </c>
       <c r="H63" s="13">
-        <v>17375.287569825141</v>
+        <v>22200.000000000004</v>
       </c>
       <c r="I63" s="13">
-        <v>1377.644706160612</v>
+        <v>1669.56</v>
       </c>
       <c r="J63" s="13">
         <v>1.07</v>
@@ -5802,10 +5787,10 @@
         <v>595095</v>
       </c>
       <c r="H64" s="13">
-        <v>16590.284941496233</v>
+        <v>21100</v>
       </c>
       <c r="I64" s="13">
-        <v>1275.2702388422192</v>
+        <v>1500.9700000000003</v>
       </c>
       <c r="J64" s="13">
         <v>1.1299999999999999</v>
@@ -5873,10 +5858,10 @@
         <v>1414212</v>
       </c>
       <c r="H65" s="13">
-        <v>18652.565126639201</v>
+        <v>24000.000000000004</v>
       </c>
       <c r="I65" s="13">
-        <v>1549.2592872688435</v>
+        <v>1939.1299999999997</v>
       </c>
       <c r="J65" s="13">
         <v>0.99</v>
@@ -5944,10 +5929,10 @@
         <v>1230589</v>
       </c>
       <c r="H66" s="13">
-        <v>18468.189470178258</v>
+        <v>23599.999999999993</v>
       </c>
       <c r="I66" s="13">
-        <v>1487.0309895888686</v>
+        <v>1813.21</v>
       </c>
       <c r="J66" s="13">
         <v>0.99</v>
@@ -6015,10 +6000,10 @@
         <v>1949858</v>
       </c>
       <c r="H67" s="13">
-        <v>19216.906644333681</v>
+        <v>24600.000000000007</v>
       </c>
       <c r="I67" s="13">
-        <v>1517.2456312761381</v>
+        <v>1837.2200000000003</v>
       </c>
       <c r="J67" s="13">
         <v>1.07</v>
@@ -6086,10 +6071,10 @@
         <v>1782445</v>
       </c>
       <c r="H68" s="13">
-        <v>18811.78343387018</v>
+        <v>24100</v>
       </c>
       <c r="I68" s="13">
-        <v>1475.5585079755308</v>
+        <v>1798.2199999999993</v>
       </c>
       <c r="J68" s="13">
         <v>0.96</v>
@@ -6157,10 +6142,10 @@
         <v>1370106</v>
       </c>
       <c r="H69" s="13">
-        <v>19148.206531361506</v>
+        <v>24299.999999999996</v>
       </c>
       <c r="I69" s="13">
-        <v>1474.6582931278683</v>
+        <v>1819</v>
       </c>
       <c r="J69" s="13">
         <v>1.2</v>
@@ -6228,10 +6213,10 @@
         <v>1713246</v>
       </c>
       <c r="H70" s="13">
-        <v>19527.907522144185</v>
+        <v>25000</v>
       </c>
       <c r="I70" s="13">
-        <v>1512.9986665668791</v>
+        <v>1834.6000000000004</v>
       </c>
       <c r="J70" s="13">
         <v>1.22</v>
@@ -6299,10 +6284,10 @@
         <v>1706053</v>
       </c>
       <c r="H71" s="13">
-        <v>19156.197925970904</v>
+        <v>24600.000000000007</v>
       </c>
       <c r="I71" s="13">
-        <v>1546.1942325474865</v>
+        <v>1886.880000000001</v>
       </c>
       <c r="J71" s="13">
         <v>1.02</v>
@@ -6370,10 +6355,10 @@
         <v>1807164</v>
       </c>
       <c r="H72" s="13">
-        <v>19984.442001119154</v>
+        <v>25599.999999999985</v>
       </c>
       <c r="I72" s="13">
-        <v>1638.6871878424718</v>
+        <v>1986.7099999999991</v>
       </c>
       <c r="J72" s="13">
         <v>1.1000000000000001</v>
@@ -6441,10 +6426,10 @@
         <v>2262686</v>
       </c>
       <c r="H73" s="13">
-        <v>19435.096532556538</v>
+        <v>25000</v>
       </c>
       <c r="I73" s="13">
-        <v>1561.0125094741243</v>
+        <v>1879.0600000000013</v>
       </c>
       <c r="J73" s="13">
         <v>0.93</v>
@@ -6512,10 +6497,10 @@
         <v>4047177</v>
       </c>
       <c r="H74" s="13">
-        <v>18597.716899244715</v>
+        <v>23900.000000000007</v>
       </c>
       <c r="I74" s="13">
-        <v>1596.3771470976064</v>
+        <v>1982.3499999999985</v>
       </c>
       <c r="J74" s="13">
         <v>0.93</v>
@@ -6583,10 +6568,10 @@
         <v>785423</v>
       </c>
       <c r="H75" s="13">
-        <v>20427.702953713335</v>
+        <v>26100</v>
       </c>
       <c r="I75" s="13">
-        <v>1644.3758516518899</v>
+        <v>1992.81</v>
       </c>
       <c r="J75" s="13">
         <v>0.99</v>
@@ -6654,10 +6639,10 @@
         <v>657459</v>
       </c>
       <c r="H76" s="13">
-        <v>18241.450741360786</v>
+        <v>23200</v>
       </c>
       <c r="I76" s="13">
-        <v>1460.8959378252712</v>
+        <v>1730.69</v>
       </c>
       <c r="J76" s="13">
         <v>1.1100000000000001</v>
@@ -6725,10 +6710,10 @@
         <v>1221571</v>
       </c>
       <c r="H77" s="13">
-        <v>19896.069468415149</v>
+        <v>25700.000000000004</v>
       </c>
       <c r="I77" s="13">
-        <v>1601.1438735143763</v>
+        <v>1951</v>
       </c>
       <c r="J77" s="13">
         <v>1.2</v>
@@ -6796,10 +6781,10 @@
         <v>1467660</v>
       </c>
       <c r="H78" s="13">
-        <v>19876.78019247999</v>
+        <v>25900</v>
       </c>
       <c r="I78" s="13">
-        <v>1565.8920277423863</v>
+        <v>1927.8000000000002</v>
       </c>
       <c r="J78" s="13">
         <v>1.03</v>
@@ -6867,10 +6852,10 @@
         <v>1777748</v>
       </c>
       <c r="H79" s="13">
-        <v>20623.021764650784</v>
+        <v>26600</v>
       </c>
       <c r="I79" s="13">
-        <v>1654.8683007018667</v>
+        <v>2046.9700000000003</v>
       </c>
       <c r="J79" s="13">
         <v>1.1399999999999999</v>
@@ -6938,10 +6923,10 @@
         <v>1831204</v>
       </c>
       <c r="H80" s="13">
-        <v>20301.049622384904</v>
+        <v>26199.999999999993</v>
       </c>
       <c r="I80" s="13">
-        <v>1623.097848103866</v>
+        <v>1963.9899999999998</v>
       </c>
       <c r="J80" s="13">
         <v>1.02</v>
@@ -7009,10 +6994,10 @@
         <v>1986834</v>
       </c>
       <c r="H81" s="13">
-        <v>20874.684169435084</v>
+        <v>26800.000000000015</v>
       </c>
       <c r="I81" s="13">
-        <v>1639.0170283717823</v>
+        <v>1990.83</v>
       </c>
       <c r="J81" s="13">
         <v>1.31</v>
@@ -7080,10 +7065,10 @@
         <v>1545823</v>
       </c>
       <c r="H82" s="13">
-        <v>20782.712824771923</v>
+        <v>26499.999999999985</v>
       </c>
       <c r="I82" s="13">
-        <v>1652.9391277640432</v>
+        <v>2003.3500000000004</v>
       </c>
       <c r="J82" s="13">
         <v>1.35</v>
@@ -7151,10 +7136,10 @@
         <v>2473232</v>
       </c>
       <c r="H83" s="13">
-        <v>20246.388051839174</v>
+        <v>25700.000000000004</v>
       </c>
       <c r="I83" s="13">
-        <v>1625.1692141167648</v>
+        <v>1961.9299999999985</v>
       </c>
       <c r="J83" s="13">
         <v>1.1399999999999999</v>
@@ -7222,10 +7207,10 @@
         <v>2119556</v>
       </c>
       <c r="H84" s="13">
-        <v>21155.405399622232</v>
+        <v>27199.999999999989</v>
       </c>
       <c r="I84" s="13">
-        <v>1714.1323639338761</v>
+        <v>2094.5</v>
       </c>
       <c r="J84" s="13">
         <v>1.21</v>
@@ -7293,10 +7278,10 @@
         <v>2513559</v>
       </c>
       <c r="H85" s="13">
-        <v>20134.760007728572</v>
+        <v>26100.000000000029</v>
       </c>
       <c r="I85" s="13">
-        <v>1686.4839641363471</v>
+        <v>2065.1500000000015</v>
       </c>
       <c r="J85" s="13">
         <v>1.03</v>
@@ -7364,10 +7349,10 @@
         <v>6776898</v>
       </c>
       <c r="H86" s="13">
-        <v>20932.158351032751</v>
+        <v>27099.999999999975</v>
       </c>
       <c r="I86" s="13">
-        <v>1717.8924224736929</v>
+        <v>2064.16</v>
       </c>
       <c r="J86" s="13">
         <v>1.07</v>
@@ -12547,7 +12532,7 @@
         <v>2002050.0000000002</v>
       </c>
       <c r="H159" s="13">
-        <v>27624.970399999998</v>
+        <v>27660.940999999999</v>
       </c>
       <c r="I159" s="13">
         <v>2274.01136</v>
@@ -12618,7 +12603,7 @@
         <v>2002050.0000000002</v>
       </c>
       <c r="H160" s="13">
-        <v>23354.256000000001</v>
+        <v>23373.7392</v>
       </c>
       <c r="I160" s="13">
         <v>1920.1761899999999</v>
@@ -12689,7 +12674,7 @@
         <v>2498999.9999999991</v>
       </c>
       <c r="H161" s="13">
-        <v>26181.664199999999</v>
+        <v>26219.804100000001</v>
       </c>
       <c r="I161" s="13">
         <v>2140.6057999999998</v>
@@ -12760,7 +12745,7 @@
         <v>4286000.0000000009</v>
       </c>
       <c r="H162" s="13">
-        <v>24529.875800000002</v>
+        <v>24562.984</v>
       </c>
       <c r="I162" s="13">
         <v>1976.23002</v>
@@ -12831,7 +12816,7 @@
         <v>3797099.9999999981</v>
       </c>
       <c r="H163" s="13">
-        <v>25788.048299999999</v>
+        <v>25823.462800000001</v>
       </c>
       <c r="I163" s="13">
         <v>2078.3095600000001</v>
@@ -12902,7 +12887,7 @@
         <v>5867300</v>
       </c>
       <c r="H164" s="13">
-        <v>24748.860199999999</v>
+        <v>24785.9463</v>
       </c>
       <c r="I164" s="13">
         <v>2001.9111399999999</v>
